--- a/balanceoDM/150x150/métricasSeparabilidad_HS(V)_150x150.xlsx
+++ b/balanceoDM/150x150/métricasSeparabilidad_HS(V)_150x150.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\balanceoDM\150x150\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -364,8 +369,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,11 +433,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,9 +519,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,6 +554,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -715,14 +730,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -777,37 +800,37 @@
         <v>-2.274247188043109</v>
       </c>
       <c r="E2">
-        <v>-3.448760955420157</v>
+        <v>-3.4487609554201568</v>
       </c>
       <c r="F2">
         <v>0.2770838915071438</v>
       </c>
       <c r="G2">
-        <v>0.02302790425823892</v>
+        <v>2.3027904258238922E-2</v>
       </c>
       <c r="H2">
-        <v>0.0005716414062506122</v>
+        <v>5.7164140625061215E-4</v>
       </c>
       <c r="I2">
-        <v>1.086907819883273</v>
+        <v>1.0869078198832729</v>
       </c>
       <c r="J2">
-        <v>-2.330613516007608</v>
+        <v>-2.3306135160076078</v>
       </c>
       <c r="K2">
-        <v>-3.496392493028331</v>
+        <v>-3.4963924930283312</v>
       </c>
       <c r="L2">
-        <v>0.2772681844293629</v>
+        <v>0.27726818442936291</v>
       </c>
       <c r="M2">
-        <v>0.01991786023843397</v>
+        <v>1.991786023843397E-2</v>
       </c>
       <c r="N2">
-        <v>0.0004866144378905518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>4.8661443789055179E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -818,40 +841,40 @@
         <v>15.52523280152899</v>
       </c>
       <c r="D3">
-        <v>7.769596575271646</v>
+        <v>7.7695965752716463</v>
       </c>
       <c r="E3">
-        <v>-8.348610981143912</v>
+        <v>-8.3486109811439118</v>
       </c>
       <c r="F3">
-        <v>3.607081224099297e-52</v>
+        <v>3.6070812240992973E-52</v>
       </c>
       <c r="G3">
-        <v>1.103481484636525e-14</v>
+        <v>1.103481484636525E-14</v>
       </c>
       <c r="H3">
-        <v>1.080065765664404e-16</v>
+        <v>1.080065765664404E-16</v>
       </c>
       <c r="I3">
-        <v>15.56187671435197</v>
+        <v>15.561876714351969</v>
       </c>
       <c r="J3">
-        <v>7.961651510945012</v>
+        <v>7.9616515109450123</v>
       </c>
       <c r="K3">
-        <v>-8.158116105143769</v>
+        <v>-8.1581161051437689</v>
       </c>
       <c r="L3">
-        <v>2.037955009046041e-50</v>
+        <v>2.0379550090460411E-50</v>
       </c>
       <c r="M3">
-        <v>3.528736947640029e-15</v>
+        <v>3.5287369476400291E-15</v>
       </c>
       <c r="N3">
-        <v>7.606173854425754e-16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>7.6061738544257542E-16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -865,37 +888,37 @@
         <v>-1.073289508892098</v>
       </c>
       <c r="E4">
-        <v>-5.180933498988207</v>
+        <v>-5.1809334989882068</v>
       </c>
       <c r="F4">
-        <v>0.0003659725225845326</v>
+        <v>3.6597252258453261E-4</v>
       </c>
       <c r="G4">
-        <v>0.2832354793366016</v>
+        <v>0.28323547933660159</v>
       </c>
       <c r="H4">
-        <v>2.367660663497626e-07</v>
+        <v>2.3676606634976261E-7</v>
       </c>
       <c r="I4">
-        <v>3.567320202570187</v>
+        <v>3.5673202025701869</v>
       </c>
       <c r="J4">
-        <v>-1.095079330530763</v>
+        <v>-1.0950793305307629</v>
       </c>
       <c r="K4">
-        <v>-5.251993201206468</v>
+        <v>-5.2519932012064681</v>
       </c>
       <c r="L4">
-        <v>0.0003730435802144864</v>
+        <v>3.7304358021448641E-4</v>
       </c>
       <c r="M4">
-        <v>0.2736738019347008</v>
+        <v>0.27367380193470081</v>
       </c>
       <c r="N4">
-        <v>1.741852203893764e-07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.7418522038937641E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,43 +926,43 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>-13.97038703417667</v>
+        <v>-13.970387034176669</v>
       </c>
       <c r="D5">
-        <v>-9.103089051477754</v>
+        <v>-9.1030890514777543</v>
       </c>
       <c r="E5">
-        <v>5.605095459985669</v>
+        <v>5.6050954599856686</v>
       </c>
       <c r="F5">
-        <v>6.69491132862988e-43</v>
+        <v>6.6949113286298803E-43</v>
       </c>
       <c r="G5">
-        <v>1.643902799573819e-19</v>
+        <v>1.643902799573819E-19</v>
       </c>
       <c r="H5">
-        <v>2.288211313238326e-08</v>
+        <v>2.2882113132383261E-8</v>
       </c>
       <c r="I5">
         <v>-13.3356491158741</v>
       </c>
       <c r="J5">
-        <v>-8.522219734452348</v>
+        <v>-8.5222197344523476</v>
       </c>
       <c r="K5">
-        <v>5.754179315384773</v>
+        <v>5.7541793153847731</v>
       </c>
       <c r="L5">
-        <v>3.061941316577914e-38</v>
+        <v>3.0619413165779142E-38</v>
       </c>
       <c r="M5">
-        <v>4.058684443061344e-17</v>
+        <v>4.0586844430613441E-17</v>
       </c>
       <c r="N5">
-        <v>1.072032272483053e-08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.0720322724830531E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -947,43 +970,43 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>-0.8084778705113581</v>
+        <v>-0.80847787051135811</v>
       </c>
       <c r="D6">
-        <v>-0.6492846676839872</v>
+        <v>-0.64928466768398718</v>
       </c>
       <c r="E6">
-        <v>0.1672538439383467</v>
+        <v>0.16725384393834669</v>
       </c>
       <c r="F6">
         <v>0.4188855248907809</v>
       </c>
       <c r="G6">
-        <v>0.5162086561235659</v>
+        <v>0.51620865612356592</v>
       </c>
       <c r="H6">
-        <v>0.8671826259774992</v>
+        <v>0.86718262597749918</v>
       </c>
       <c r="I6">
-        <v>-0.8088264468594313</v>
+        <v>-0.80882644685943128</v>
       </c>
       <c r="J6">
-        <v>-0.6684180783284259</v>
+        <v>-0.66841807832842592</v>
       </c>
       <c r="K6">
-        <v>0.1692815171968748</v>
+        <v>0.16928151719687479</v>
       </c>
       <c r="L6">
-        <v>0.4187550086354054</v>
+        <v>0.41875500863540538</v>
       </c>
       <c r="M6">
-        <v>0.503979030174156</v>
+        <v>0.50397903017415602</v>
       </c>
       <c r="N6">
-        <v>0.8656001311371858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.86560013113718581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -991,43 +1014,43 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>14.15679848872015</v>
+        <v>14.156798488720151</v>
       </c>
       <c r="D7">
-        <v>7.112642418444748</v>
+        <v>7.1126424184447483</v>
       </c>
       <c r="E7">
-        <v>-7.566980279596475</v>
+        <v>-7.5669802795964749</v>
       </c>
       <c r="F7">
-        <v>5.732258033781185e-44</v>
+        <v>5.732258033781185E-44</v>
       </c>
       <c r="G7">
-        <v>1.445852774970992e-12</v>
+        <v>1.4458527749709921E-12</v>
       </c>
       <c r="H7">
-        <v>5.179324927778497e-14</v>
+        <v>5.1793249277784968E-14</v>
       </c>
       <c r="I7">
-        <v>14.20306884617387</v>
+        <v>14.203068846173871</v>
       </c>
       <c r="J7">
-        <v>7.272343315102384</v>
+        <v>7.2723433151023844</v>
       </c>
       <c r="K7">
-        <v>-7.428322802391649</v>
+        <v>-7.4283228023916488</v>
       </c>
       <c r="L7">
-        <v>8.026484890656139e-43</v>
+        <v>8.0264848906561386E-43</v>
       </c>
       <c r="M7">
-        <v>5.912766523687077e-13</v>
+        <v>5.9127665236870768E-13</v>
       </c>
       <c r="N7">
-        <v>1.923786356329442e-13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.9237863563294421E-13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1035,43 +1058,43 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>-3.95726066239302</v>
+        <v>-3.9572606623930202</v>
       </c>
       <c r="D8">
-        <v>0.04162854083753447</v>
+        <v>4.1628540837534471E-2</v>
       </c>
       <c r="E8">
-        <v>4.337390513033285</v>
+        <v>4.3373905130332853</v>
       </c>
       <c r="F8">
-        <v>7.773401445581785e-05</v>
+        <v>7.7734014455817848E-5</v>
       </c>
       <c r="G8">
-        <v>0.9667978448582333</v>
+        <v>0.96679784485823328</v>
       </c>
       <c r="H8">
-        <v>1.493799293115507e-05</v>
+        <v>1.493799293115507E-5</v>
       </c>
       <c r="I8">
         <v>-3.941094583709897</v>
       </c>
       <c r="J8">
-        <v>0.04294899224642768</v>
+        <v>4.2948992246427682E-2</v>
       </c>
       <c r="K8">
-        <v>4.366295875005221</v>
+        <v>4.3662958750052212</v>
       </c>
       <c r="L8">
-        <v>8.518995037738648e-05</v>
+        <v>8.5189950377386476E-5</v>
       </c>
       <c r="M8">
-        <v>0.9657484349057734</v>
+        <v>0.96574843490577345</v>
       </c>
       <c r="N8">
-        <v>1.358447380452235e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.358447380452235E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1079,43 +1102,43 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>5.712921529015292</v>
+        <v>5.7129215290152917</v>
       </c>
       <c r="D9">
-        <v>-6.97933930102856</v>
+        <v>-6.9793393010285598</v>
       </c>
       <c r="E9">
         <v>-12.92775846588497</v>
       </c>
       <c r="F9">
-        <v>1.229753409710668e-08</v>
+        <v>1.229753409710668E-8</v>
       </c>
       <c r="G9">
-        <v>3.70310587251707e-12</v>
+        <v>3.70310587251707E-12</v>
       </c>
       <c r="H9">
-        <v>3.717565010044711e-37</v>
+        <v>3.7175650100447109E-37</v>
       </c>
       <c r="I9">
-        <v>5.661566305086279</v>
+        <v>5.6615663050862786</v>
       </c>
       <c r="J9">
-        <v>-6.807450540062202</v>
+        <v>-6.8074505400622023</v>
       </c>
       <c r="K9">
         <v>-13.05049818001657</v>
       </c>
       <c r="L9">
-        <v>1.82378689842254e-08</v>
+        <v>1.82378689842254E-8</v>
       </c>
       <c r="M9">
-        <v>1.479962751318408e-11</v>
+        <v>1.4799627513184081E-11</v>
       </c>
       <c r="N9">
-        <v>8.796918259946642e-37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>8.796918259946642E-37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1123,43 +1146,43 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>-4.83950893501735</v>
+        <v>-4.8395089350173501</v>
       </c>
       <c r="D10">
-        <v>6.562020404647361</v>
+        <v>6.5620204046473614</v>
       </c>
       <c r="E10">
-        <v>11.42234921084625</v>
+        <v>11.422349210846249</v>
       </c>
       <c r="F10">
-        <v>1.373543956529424e-06</v>
+        <v>1.373543956529424E-6</v>
       </c>
       <c r="G10">
-        <v>6.321279153682068e-11</v>
+        <v>6.3212791536820685E-11</v>
       </c>
       <c r="H10">
-        <v>1.485041660811136e-29</v>
+        <v>1.4850416608111359E-29</v>
       </c>
       <c r="I10">
         <v>-4.630601739289621</v>
       </c>
       <c r="J10">
-        <v>6.192192355656193</v>
+        <v>6.1921923556561929</v>
       </c>
       <c r="K10">
         <v>11.77800945318903</v>
       </c>
       <c r="L10">
-        <v>3.991036481085307e-06</v>
+        <v>3.9910364810853073E-6</v>
       </c>
       <c r="M10">
-        <v>7.821084047357259e-10</v>
+        <v>7.8210840473572585E-10</v>
       </c>
       <c r="N10">
-        <v>1.416017275814802e-30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.416017275814802E-30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1167,22 +1190,22 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>-3.96262806773498</v>
+        <v>-3.9626280677349799</v>
       </c>
       <c r="D11">
-        <v>2.635541856857944</v>
+        <v>2.6355418568579441</v>
       </c>
       <c r="E11">
-        <v>6.86553138586499</v>
+        <v>6.8655313858649896</v>
       </c>
       <c r="F11">
-        <v>7.6016125478566e-05</v>
+        <v>7.6016125478565999E-5</v>
       </c>
       <c r="G11">
-        <v>0.008447522042845105</v>
+        <v>8.4475220428451049E-3</v>
       </c>
       <c r="H11">
-        <v>8.158265860053719e-12</v>
+        <v>8.1582658600537193E-12</v>
       </c>
       <c r="I11">
         <v>-3.806091122761579</v>
@@ -1191,19 +1214,19 @@
         <v>2.472658942932846</v>
       </c>
       <c r="K11">
-        <v>6.983227227656148</v>
+        <v>6.9832272276561476</v>
       </c>
       <c r="L11">
-        <v>0.0001473902155602383</v>
+        <v>1.4739021556023829E-4</v>
       </c>
       <c r="M11">
-        <v>0.01353150125000487</v>
+        <v>1.3531501250004871E-2</v>
       </c>
       <c r="N11">
-        <v>4.479176601392135e-12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>4.4791766013921352E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1211,43 +1234,43 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>4.318594573535438</v>
+        <v>4.3185945735354379</v>
       </c>
       <c r="D12">
-        <v>-5.731568748467202</v>
+        <v>-5.7315687484672022</v>
       </c>
       <c r="E12">
-        <v>-10.28221165026162</v>
+        <v>-10.282211650261621</v>
       </c>
       <c r="F12">
-        <v>1.625899601266884e-05</v>
+        <v>1.6258996012668838E-5</v>
       </c>
       <c r="G12">
-        <v>1.103315518914815e-08</v>
+        <v>1.103315518914815E-8</v>
       </c>
       <c r="H12">
-        <v>2.327911646557587e-24</v>
+        <v>2.3279116465575871E-24</v>
       </c>
       <c r="I12">
-        <v>4.41750963732564</v>
+        <v>4.4175096373256402</v>
       </c>
       <c r="J12">
-        <v>-5.710899413885461</v>
+        <v>-5.7108994138854614</v>
       </c>
       <c r="K12">
-        <v>-10.05323783028198</v>
+        <v>-10.053237830281979</v>
       </c>
       <c r="L12">
-        <v>1.076815317314345e-05</v>
+        <v>1.0768153173143449E-5</v>
       </c>
       <c r="M12">
-        <v>1.375526557428319e-08</v>
+        <v>1.375526557428319E-8</v>
       </c>
       <c r="N12">
-        <v>5.418429479292146e-23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>5.4184294792921461E-23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1255,43 +1278,43 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>5.404443667870028</v>
+        <v>5.4044436678700283</v>
       </c>
       <c r="D13">
-        <v>-2.993540019484524</v>
+        <v>-2.9935400194845241</v>
       </c>
       <c r="E13">
         <v>-9.005566685424764</v>
       </c>
       <c r="F13">
-        <v>7.058516863259651e-08</v>
+        <v>7.0585168632596505E-8</v>
       </c>
       <c r="G13">
-        <v>0.00278218700022642</v>
+        <v>2.7821870002264202E-3</v>
       </c>
       <c r="H13">
-        <v>3.914562647460388e-19</v>
+        <v>3.9145626474603879E-19</v>
       </c>
       <c r="I13">
-        <v>5.268880515516576</v>
+        <v>5.2688805155165763</v>
       </c>
       <c r="J13">
         <v>-2.824532575913981</v>
       </c>
       <c r="K13">
-        <v>-9.406736203762454</v>
+        <v>-9.4067362037624545</v>
       </c>
       <c r="L13">
-        <v>1.591886265552653e-07</v>
+        <v>1.5918862655526531E-7</v>
       </c>
       <c r="M13">
-        <v>0.004803376021957025</v>
+        <v>4.8033760219570246E-3</v>
       </c>
       <c r="N13">
-        <v>2.069856753124023e-20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>2.0698567531240229E-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1299,43 +1322,43 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>-4.833422628936415</v>
+        <v>-4.8334226289364146</v>
       </c>
       <c r="D14">
-        <v>6.79969717334374</v>
+        <v>6.7996971733437404</v>
       </c>
       <c r="E14">
         <v>11.56002356493304</v>
       </c>
       <c r="F14">
-        <v>1.415864050802897e-06</v>
+        <v>1.4158640508028969E-6</v>
       </c>
       <c r="G14">
-        <v>1.281270539036243e-11</v>
+        <v>1.281270539036243E-11</v>
       </c>
       <c r="H14">
-        <v>3.245491502338644e-30</v>
+        <v>3.245491502338644E-30</v>
       </c>
       <c r="I14">
-        <v>-4.657652161886303</v>
+        <v>-4.6576521618863032</v>
       </c>
       <c r="J14">
-        <v>6.500424560691897</v>
+        <v>6.5004245606918971</v>
       </c>
       <c r="K14">
         <v>12.06326224240615</v>
       </c>
       <c r="L14">
-        <v>3.508108655025053e-06</v>
+        <v>3.5081086550250532E-6</v>
       </c>
       <c r="M14">
-        <v>1.117825925968941e-10</v>
+        <v>1.117825925968941E-10</v>
       </c>
       <c r="N14">
-        <v>6.359886508962889e-32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>6.359886508962889E-32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1343,43 +1366,43 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>-4.849792591565802</v>
+        <v>-4.8497925915658016</v>
       </c>
       <c r="D15">
-        <v>10.14776416934951</v>
+        <v>10.147764169349511</v>
       </c>
       <c r="E15">
-        <v>15.25313658611836</v>
+        <v>15.253136586118361</v>
       </c>
       <c r="F15">
-        <v>1.304789552730004e-06</v>
+        <v>1.3047895527300039E-6</v>
       </c>
       <c r="G15">
-        <v>8.851146176472924e-24</v>
+        <v>8.8511461764729238E-24</v>
       </c>
       <c r="H15">
-        <v>1.73141678604593e-50</v>
+        <v>1.73141678604593E-50</v>
       </c>
       <c r="I15">
-        <v>-4.730523804461771</v>
+        <v>-4.7305238044617708</v>
       </c>
       <c r="J15">
-        <v>10.07991619919603</v>
+        <v>10.079916199196029</v>
       </c>
       <c r="K15">
         <v>15.06183818147842</v>
       </c>
       <c r="L15">
-        <v>2.470191478444184e-06</v>
+        <v>2.470191478444184E-6</v>
       </c>
       <c r="M15">
-        <v>4.209207317781023e-23</v>
+        <v>4.2092073177810227E-23</v>
       </c>
       <c r="N15">
-        <v>1.450771398771937e-47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.4507713987719371E-47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1387,43 +1410,43 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-2.649504551201346</v>
+        <v>-2.6495045512013462</v>
       </c>
       <c r="D16">
         <v>-3.042522136072892</v>
       </c>
       <c r="E16">
-        <v>-0.711529822739367</v>
+        <v>-0.71152982273936705</v>
       </c>
       <c r="F16">
-        <v>0.008107161444378846</v>
+        <v>8.1071614443788461E-3</v>
       </c>
       <c r="G16">
-        <v>0.002368232958570977</v>
+        <v>2.368232958570977E-3</v>
       </c>
       <c r="H16">
-        <v>0.4768163710763265</v>
+        <v>0.47681637107632652</v>
       </c>
       <c r="I16">
         <v>-2.666876340238304</v>
       </c>
       <c r="J16">
-        <v>-3.007523762681168</v>
+        <v>-3.0075237626811679</v>
       </c>
       <c r="K16">
-        <v>-0.7200779427767687</v>
+        <v>-0.72007794277676873</v>
       </c>
       <c r="L16">
-        <v>0.007745881052063316</v>
+        <v>7.7458810520633159E-3</v>
       </c>
       <c r="M16">
-        <v>0.002681719648615747</v>
+        <v>2.681719648615747E-3</v>
       </c>
       <c r="N16">
         <v>0.4715994792294872</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1431,28 +1454,28 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-0.5344018373845528</v>
+        <v>-0.53440183738455282</v>
       </c>
       <c r="D17">
-        <v>2.194055215514661</v>
+        <v>2.1940552155146609</v>
       </c>
       <c r="E17">
-        <v>2.4621007103498</v>
+        <v>2.4621007103497998</v>
       </c>
       <c r="F17">
-        <v>0.5931067788094133</v>
+        <v>0.59310677880941332</v>
       </c>
       <c r="G17">
-        <v>0.02831488926960658</v>
+        <v>2.8314889269606579E-2</v>
       </c>
       <c r="H17">
-        <v>0.01387355687745399</v>
+        <v>1.387355687745399E-2</v>
       </c>
       <c r="I17">
-        <v>-0.5374224104758998</v>
+        <v>-0.53742241047589978</v>
       </c>
       <c r="J17">
-        <v>2.135479615908688</v>
+        <v>2.1354796159086882</v>
       </c>
       <c r="K17">
         <v>2.477971154770084</v>
@@ -1461,13 +1484,13 @@
         <v>0.5910628897957757</v>
       </c>
       <c r="M17">
-        <v>0.03289825465932976</v>
+        <v>3.2898254659329759E-2</v>
       </c>
       <c r="N17">
-        <v>0.01333260370439345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.333260370439345E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1475,43 +1498,43 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>8.657311498059171</v>
+        <v>8.6573114980591708</v>
       </c>
       <c r="D18">
-        <v>0.3770210310451856</v>
+        <v>0.37702103104518558</v>
       </c>
       <c r="E18">
-        <v>-8.752051611434268</v>
+        <v>-8.7520516114342684</v>
       </c>
       <c r="F18">
-        <v>8.086512284407983e-18</v>
+        <v>8.0865122844079832E-18</v>
       </c>
       <c r="G18">
-        <v>0.7061870870287119</v>
+        <v>0.70618708702871191</v>
       </c>
       <c r="H18">
-        <v>3.587023064955177e-18</v>
+        <v>3.5870230649551773E-18</v>
       </c>
       <c r="I18">
-        <v>8.242704947372228</v>
+        <v>8.2427049473722285</v>
       </c>
       <c r="J18">
-        <v>0.358809320825639</v>
+        <v>0.35880932082563899</v>
       </c>
       <c r="K18">
-        <v>-8.590561716997628</v>
+        <v>-8.5905617169976285</v>
       </c>
       <c r="L18">
-        <v>3.888856233690295e-16</v>
+        <v>3.8888562336902948E-16</v>
       </c>
       <c r="M18">
-        <v>0.7197928648274052</v>
+        <v>0.71979286482740523</v>
       </c>
       <c r="N18">
-        <v>2.312436517070077e-17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>2.312436517070077E-17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1519,43 +1542,43 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>3.540089828853411</v>
+        <v>3.5400898288534108</v>
       </c>
       <c r="D19">
-        <v>-5.0222055012822</v>
+        <v>-5.0222055012822002</v>
       </c>
       <c r="E19">
         <v>-10.84927613958515</v>
       </c>
       <c r="F19">
-        <v>0.0004066315015982484</v>
+        <v>4.0663150159824841E-4</v>
       </c>
       <c r="G19">
-        <v>5.435008948957292e-07</v>
+        <v>5.4350089489572922E-7</v>
       </c>
       <c r="H19">
-        <v>6.991195813768871e-27</v>
+        <v>6.9911958137688707E-27</v>
       </c>
       <c r="I19">
-        <v>3.504633305380181</v>
+        <v>3.5046333053801808</v>
       </c>
       <c r="J19">
-        <v>-5.009761404808693</v>
+        <v>-5.0097614048086934</v>
       </c>
       <c r="K19">
         <v>-11.01474262981661</v>
       </c>
       <c r="L19">
-        <v>0.0004719292955829969</v>
+        <v>4.7192929558299688E-4</v>
       </c>
       <c r="M19">
-        <v>6.157783600008237e-07</v>
+        <v>6.1577836000082369E-7</v>
       </c>
       <c r="N19">
-        <v>4.249894435421499e-27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>4.2498944354214987E-27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1563,43 +1586,43 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-4.635222428763591</v>
+        <v>-4.6352224287635906</v>
       </c>
       <c r="D20">
-        <v>2.410024710791726</v>
+        <v>2.4100247107917259</v>
       </c>
       <c r="E20">
-        <v>7.548459384295676</v>
+        <v>7.5484593842956764</v>
       </c>
       <c r="F20">
-        <v>3.731914836058673e-06</v>
+        <v>3.731914836058673E-6</v>
       </c>
       <c r="G20">
-        <v>0.01601675139069749</v>
+        <v>1.6016751390697491E-2</v>
       </c>
       <c r="H20">
-        <v>5.954348649062851e-14</v>
+        <v>5.9543486490628514E-14</v>
       </c>
       <c r="I20">
         <v>-4.590604326689383</v>
       </c>
       <c r="J20">
-        <v>2.327558993335714</v>
+        <v>2.3275589933357139</v>
       </c>
       <c r="K20">
-        <v>7.569644460906999</v>
+        <v>7.5696444609069991</v>
       </c>
       <c r="L20">
-        <v>4.823625677041967e-06</v>
+        <v>4.8236256770419668E-6</v>
       </c>
       <c r="M20">
-        <v>0.0200801617269825</v>
+        <v>2.0080161726982501E-2</v>
       </c>
       <c r="N20">
-        <v>6.829798913889581e-14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>6.8297989138895812E-14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1607,43 +1630,43 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-2.540165178691674</v>
+        <v>-2.5401651786916739</v>
       </c>
       <c r="D21">
-        <v>0.7399868830580663</v>
+        <v>0.73998688305806626</v>
       </c>
       <c r="E21">
         <v>3.133169102184568</v>
       </c>
       <c r="F21">
-        <v>0.01113462829449985</v>
+        <v>1.113462829449985E-2</v>
       </c>
       <c r="G21">
-        <v>0.4593711660638706</v>
+        <v>0.45937116606387057</v>
       </c>
       <c r="H21">
-        <v>0.001747517784175472</v>
+        <v>1.747517784175472E-3</v>
       </c>
       <c r="I21">
-        <v>-2.564313104585455</v>
+        <v>-2.5643131045854548</v>
       </c>
       <c r="J21">
-        <v>0.7265952195927332</v>
+        <v>0.72659521959273321</v>
       </c>
       <c r="K21">
         <v>3.164442303547399</v>
       </c>
       <c r="L21">
-        <v>0.01044353152127314</v>
+        <v>1.044353152127314E-2</v>
       </c>
       <c r="M21">
-        <v>0.4675977202606248</v>
+        <v>0.46759772026062479</v>
       </c>
       <c r="N21">
-        <v>0.001587874433632811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.5878744336328111E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1651,43 +1674,43 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-7.198405305656999</v>
+        <v>-7.1984053056569994</v>
       </c>
       <c r="D22">
-        <v>-8.699023412283163</v>
+        <v>-8.6990234122831627</v>
       </c>
       <c r="E22">
-        <v>-1.543447029666068</v>
+        <v>-1.5434470296660681</v>
       </c>
       <c r="F22">
-        <v>7.826323336061008e-13</v>
+        <v>7.8263233360610079E-13</v>
       </c>
       <c r="G22">
-        <v>5.659365843524697e-18</v>
+        <v>5.6593658435246968E-18</v>
       </c>
       <c r="H22">
-        <v>0.1228374929712489</v>
+        <v>0.12283749297124889</v>
       </c>
       <c r="I22">
-        <v>-7.020793233336176</v>
+        <v>-7.0207932333361764</v>
       </c>
       <c r="J22">
-        <v>-8.522090129611856</v>
+        <v>-8.5220901296118559</v>
       </c>
       <c r="K22">
         <v>-1.55569837602145</v>
       </c>
       <c r="L22">
-        <v>3.457283653992679e-12</v>
+        <v>3.4572836539926789E-12</v>
       </c>
       <c r="M22">
-        <v>4.063001579648412e-17</v>
+        <v>4.0630015796484122E-17</v>
       </c>
       <c r="N22">
         <v>0.1200101246917455</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1695,43 +1718,43 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>3.747373055603924</v>
+        <v>3.7473730556039242</v>
       </c>
       <c r="D23">
-        <v>2.582390650677021</v>
+        <v>2.5823906506770209</v>
       </c>
       <c r="E23">
-        <v>-1.208218456306866</v>
+        <v>-1.2082184563068661</v>
       </c>
       <c r="F23">
-        <v>0.0001823737757104516</v>
+        <v>1.823737757104516E-4</v>
       </c>
       <c r="G23">
-        <v>0.009863128283095223</v>
+        <v>9.8631282830952231E-3</v>
       </c>
       <c r="H23">
-        <v>0.2270672064337451</v>
+        <v>0.22706720643374509</v>
       </c>
       <c r="I23">
-        <v>3.797943624950567</v>
+        <v>3.7979436249505669</v>
       </c>
       <c r="J23">
         <v>2.618390652557971</v>
       </c>
       <c r="K23">
-        <v>-1.240540144418596</v>
+        <v>-1.2405401444185959</v>
       </c>
       <c r="L23">
-        <v>0.0001522665007070951</v>
+        <v>1.5226650070709511E-4</v>
       </c>
       <c r="M23">
-        <v>0.008931695349156105</v>
+        <v>8.931695349156105E-3</v>
       </c>
       <c r="N23">
-        <v>0.2149874604011792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.21498746040117919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1742,19 +1765,19 @@
         <v>-1.330888350017013</v>
       </c>
       <c r="D24">
-        <v>-10.33623276745602</v>
+        <v>-10.336232767456019</v>
       </c>
       <c r="E24">
-        <v>-9.870780864500899</v>
+        <v>-9.8707808645008992</v>
       </c>
       <c r="F24">
         <v>0.183336163315927</v>
       </c>
       <c r="G24">
-        <v>1.355055182699615e-24</v>
+        <v>1.355055182699615E-24</v>
       </c>
       <c r="H24">
-        <v>1.318395761084738e-22</v>
+        <v>1.3183957610847379E-22</v>
       </c>
       <c r="I24">
         <v>-1.297478569102706</v>
@@ -1769,13 +1792,13 @@
         <v>0.1946843689733361</v>
       </c>
       <c r="M24">
-        <v>6.168782650164572e-24</v>
+        <v>6.1687826501645718E-24</v>
       </c>
       <c r="N24">
-        <v>4.111376703506744e-23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>4.1113767035067437E-23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1783,43 +1806,43 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>0.04048502964948931</v>
+        <v>4.0485029649489308E-2</v>
       </c>
       <c r="D25">
-        <v>-5.452293302464573</v>
+        <v>-5.4522933024645734</v>
       </c>
       <c r="E25">
-        <v>-5.619242914961982</v>
+        <v>-5.6192429149619816</v>
       </c>
       <c r="F25">
-        <v>0.9677093828546909</v>
+        <v>0.96770938285469088</v>
       </c>
       <c r="G25">
-        <v>5.414280536995852e-08</v>
+        <v>5.4142805369958519E-8</v>
       </c>
       <c r="H25">
-        <v>2.110487913261343e-08</v>
+        <v>2.1104879132613431E-8</v>
       </c>
       <c r="I25">
-        <v>0.0410605106218301</v>
+        <v>4.1060510621830103E-2</v>
       </c>
       <c r="J25">
-        <v>-5.362840804546915</v>
+        <v>-5.3628408045469147</v>
       </c>
       <c r="K25">
-        <v>-5.516104282191658</v>
+        <v>-5.5161042821916579</v>
       </c>
       <c r="L25">
-        <v>0.9672536214502118</v>
+        <v>0.96725362145021176</v>
       </c>
       <c r="M25">
-        <v>9.600776888795385e-08</v>
+        <v>9.6007768887953851E-8</v>
       </c>
       <c r="N25">
-        <v>4.136325475509719e-08</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>4.1363254755097188E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1833,19 +1856,19 @@
         <v>1.855514067989797</v>
       </c>
       <c r="E26">
-        <v>-6.584540049903429</v>
+        <v>-6.5845400499034286</v>
       </c>
       <c r="F26">
-        <v>1.270494509975876e-17</v>
+        <v>1.270494509975876E-17</v>
       </c>
       <c r="G26">
-        <v>0.06362985680212763</v>
+        <v>6.3629856802127627E-2</v>
       </c>
       <c r="H26">
-        <v>5.446400661484638e-11</v>
+        <v>5.4464006614846378E-11</v>
       </c>
       <c r="I26">
-        <v>8.554997823507428</v>
+        <v>8.5549978235074278</v>
       </c>
       <c r="J26">
         <v>1.835497481344684</v>
@@ -1854,16 +1877,16 @@
         <v>-6.749298354476279</v>
       </c>
       <c r="L26">
-        <v>3.100413988944027e-17</v>
+        <v>3.1004139889440268E-17</v>
       </c>
       <c r="M26">
-        <v>0.06664803512739094</v>
+        <v>6.6648035127390939E-2</v>
       </c>
       <c r="N26">
-        <v>2.184534888267192e-11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>2.1845348882671921E-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1871,43 +1894,43 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-0.3612142864011154</v>
+        <v>-0.36121428640111541</v>
       </c>
       <c r="D27">
         <v>-10.08136319800076</v>
       </c>
       <c r="E27">
-        <v>-10.2836006994332</v>
+        <v>-10.283600699433199</v>
       </c>
       <c r="F27">
-        <v>0.7179670305037267</v>
+        <v>0.71796703050372668</v>
       </c>
       <c r="G27">
-        <v>1.701787871991658e-23</v>
+        <v>1.7017878719916579E-23</v>
       </c>
       <c r="H27">
-        <v>2.295819165522348e-24</v>
+        <v>2.295819165522348E-24</v>
       </c>
       <c r="I27">
-        <v>-0.3541963577584974</v>
+        <v>-0.35419635775849739</v>
       </c>
       <c r="J27">
-        <v>-9.996627129543418</v>
+        <v>-9.9966271295434179</v>
       </c>
       <c r="K27">
         <v>-10.47832121504463</v>
       </c>
       <c r="L27">
-        <v>0.7232460804967071</v>
+        <v>0.72324608049670713</v>
       </c>
       <c r="M27">
-        <v>9.242368973834286e-23</v>
+        <v>9.242368973834286E-23</v>
       </c>
       <c r="N27">
-        <v>9.065036854424164e-25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>9.0650368544241638E-25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1915,43 +1938,43 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>3.747373055603924</v>
+        <v>3.7473730556039242</v>
       </c>
       <c r="D28">
-        <v>2.582390650677021</v>
+        <v>2.5823906506770209</v>
       </c>
       <c r="E28">
-        <v>-1.208218456306866</v>
+        <v>-1.2082184563068661</v>
       </c>
       <c r="F28">
-        <v>0.0001823737757104516</v>
+        <v>1.823737757104516E-4</v>
       </c>
       <c r="G28">
-        <v>0.009863128283095223</v>
+        <v>9.8631282830952231E-3</v>
       </c>
       <c r="H28">
-        <v>0.2270672064337451</v>
+        <v>0.22706720643374509</v>
       </c>
       <c r="I28">
-        <v>3.797943624950567</v>
+        <v>3.7979436249505669</v>
       </c>
       <c r="J28">
         <v>2.618390652557971</v>
       </c>
       <c r="K28">
-        <v>-1.240540144418596</v>
+        <v>-1.2405401444185959</v>
       </c>
       <c r="L28">
-        <v>0.0001522665007070951</v>
+        <v>1.5226650070709511E-4</v>
       </c>
       <c r="M28">
-        <v>0.008931695349156105</v>
+        <v>8.931695349156105E-3</v>
       </c>
       <c r="N28">
-        <v>0.2149874604011792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>0.21498746040117919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1959,43 +1982,43 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>3.800486187252081</v>
+        <v>3.8004861872520812</v>
       </c>
       <c r="D29">
-        <v>3.170989804318712</v>
+        <v>3.1709898043187121</v>
       </c>
       <c r="E29">
         <v>-0.7116439238115414</v>
       </c>
       <c r="F29">
-        <v>0.0001475474898708908</v>
+        <v>1.475474898708908E-4</v>
       </c>
       <c r="G29">
-        <v>0.001535936125508321</v>
+        <v>1.5359361255083211E-3</v>
       </c>
       <c r="H29">
         <v>0.4767457057099167</v>
       </c>
       <c r="I29">
-        <v>3.842694980752864</v>
+        <v>3.8426949807528641</v>
       </c>
       <c r="J29">
-        <v>3.217809998840944</v>
+        <v>3.2178099988409441</v>
       </c>
       <c r="K29">
-        <v>-0.7300020948975839</v>
+        <v>-0.73000209489758394</v>
       </c>
       <c r="L29">
-        <v>0.0001272434202006017</v>
+        <v>1.2724342020060169E-4</v>
       </c>
       <c r="M29">
-        <v>0.001321872426034826</v>
+        <v>1.3218724260348261E-3</v>
       </c>
       <c r="N29">
-        <v>0.4655133417461865</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>0.46551334174618653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2003,43 +2026,43 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>3.751359738969075</v>
+        <v>3.7513597389690752</v>
       </c>
       <c r="D30">
         <v>2.812989648648871</v>
       </c>
       <c r="E30">
-        <v>-1.006211391863994</v>
+        <v>-1.0062113918639941</v>
       </c>
       <c r="F30">
-        <v>0.0001795123123455382</v>
+        <v>1.7951231234553821E-4</v>
       </c>
       <c r="G30">
-        <v>0.004943199083190516</v>
+        <v>4.9431990831905158E-3</v>
       </c>
       <c r="H30">
-        <v>0.3144024839112196</v>
+        <v>0.31440248391121961</v>
       </c>
       <c r="I30">
         <v>3.800691777898924</v>
       </c>
       <c r="J30">
-        <v>2.853471729206907</v>
+        <v>2.8534717292069072</v>
       </c>
       <c r="K30">
         <v>-1.032624848718708</v>
       </c>
       <c r="L30">
-        <v>0.0001506049843103345</v>
+        <v>1.506049843103345E-4</v>
       </c>
       <c r="M30">
-        <v>0.004389277313767759</v>
+        <v>4.3892773137677588E-3</v>
       </c>
       <c r="N30">
-        <v>0.3019612156033749</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>0.30196121560337491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2047,22 +2070,22 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>3.642074953969178</v>
+        <v>3.6420749539691779</v>
       </c>
       <c r="D31">
         <v>2.560833185993916</v>
       </c>
       <c r="E31">
-        <v>-1.127541761378715</v>
+        <v>-1.1275417613787151</v>
       </c>
       <c r="F31">
-        <v>0.0002754462816244175</v>
+        <v>2.7544628162441752E-4</v>
       </c>
       <c r="G31">
-        <v>0.01049512234597275</v>
+        <v>1.049512234597275E-2</v>
       </c>
       <c r="H31">
-        <v>0.2596119333012875</v>
+        <v>0.25961193330128751</v>
       </c>
       <c r="I31">
         <v>3.690618966028878</v>
@@ -2074,16 +2097,16 @@
         <v>-1.157702011864105</v>
       </c>
       <c r="L31">
-        <v>0.0002324558225050331</v>
+        <v>2.3245582250503311E-4</v>
       </c>
       <c r="M31">
-        <v>0.009481003948444569</v>
+        <v>9.4810039484445694E-3</v>
       </c>
       <c r="N31">
-        <v>0.2471868660642424</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>0.24718686606424239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2091,25 +2114,25 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-1.21444114611151</v>
+        <v>-1.2144411461115101</v>
       </c>
       <c r="D32">
-        <v>2.962740919521346</v>
+        <v>2.9627409195213459</v>
       </c>
       <c r="E32">
-        <v>3.932901881854652</v>
+        <v>3.9329018818546522</v>
       </c>
       <c r="F32">
         <v>0.2246836596215783</v>
       </c>
       <c r="G32">
-        <v>0.003075293923457388</v>
+        <v>3.075293923457388E-3</v>
       </c>
       <c r="H32">
-        <v>8.600222940725875e-05</v>
+        <v>8.6002229407258754E-5</v>
       </c>
       <c r="I32">
-        <v>-1.215992243782592</v>
+        <v>-1.2159922437825921</v>
       </c>
       <c r="J32">
         <v>2.941156759831717</v>
@@ -2118,16 +2141,16 @@
         <v>3.979285378272563</v>
       </c>
       <c r="L32">
-        <v>0.2241967437879304</v>
+        <v>0.22419674378793039</v>
       </c>
       <c r="M32">
-        <v>0.00332464373416192</v>
+        <v>3.32464373416192E-3</v>
       </c>
       <c r="N32">
-        <v>7.27310121565863e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>7.2731012156586304E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2135,22 +2158,22 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-5.401451864591657</v>
+        <v>-5.4014518645916567</v>
       </c>
       <c r="D33">
-        <v>-2.914930650021048</v>
+        <v>-2.9149306500210481</v>
       </c>
       <c r="E33">
         <v>1.30993595026923</v>
       </c>
       <c r="F33">
-        <v>7.176019457411739e-08</v>
+        <v>7.1760194574117387E-8</v>
       </c>
       <c r="G33">
-        <v>0.003586443351087919</v>
+        <v>3.5864433510879191E-3</v>
       </c>
       <c r="H33">
-        <v>0.1903269957788241</v>
+        <v>0.19032699577882409</v>
       </c>
       <c r="I33">
         <v>-5.454083580496663</v>
@@ -2162,16 +2185,16 @@
         <v>1.28850055032523</v>
       </c>
       <c r="L33">
-        <v>5.830617036463748e-08</v>
+        <v>5.830617036463748E-8</v>
       </c>
       <c r="M33">
-        <v>0.004042533991923923</v>
+        <v>4.0425339919239233E-3</v>
       </c>
       <c r="N33">
-        <v>0.1977886971326975</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>0.19778869713269751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2182,40 +2205,40 @@
         <v>0.3831615452493734</v>
       </c>
       <c r="D34">
-        <v>1.755301340124975</v>
+        <v>1.7553013401249751</v>
       </c>
       <c r="E34">
-        <v>1.509608016108308</v>
+        <v>1.5096080161083081</v>
       </c>
       <c r="F34">
-        <v>0.7016296257446448</v>
+        <v>0.70162962574464482</v>
       </c>
       <c r="G34">
-        <v>0.07931919309752405</v>
+        <v>7.9319193097524054E-2</v>
       </c>
       <c r="H34">
-        <v>0.1312584400244741</v>
+        <v>0.13125844002447409</v>
       </c>
       <c r="I34">
-        <v>0.3752238843184336</v>
+        <v>0.37522388431843362</v>
       </c>
       <c r="J34">
         <v>1.74723467663827</v>
       </c>
       <c r="K34">
-        <v>1.492602383908428</v>
+        <v>1.4926023839084279</v>
       </c>
       <c r="L34">
-        <v>0.7075518812607272</v>
+        <v>0.70755188126072721</v>
       </c>
       <c r="M34">
-        <v>0.08082004519395371</v>
+        <v>8.0820045193953707E-2</v>
       </c>
       <c r="N34">
-        <v>0.1357708684809477</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>0.13577086848094769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2223,25 +2246,25 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-0.3621336879961304</v>
+        <v>-0.36213368799613038</v>
       </c>
       <c r="D35">
-        <v>0.5702728555980237</v>
+        <v>0.57027285559802365</v>
       </c>
       <c r="E35">
-        <v>0.7495339812946307</v>
+        <v>0.74953398129463067</v>
       </c>
       <c r="F35">
-        <v>0.7172799754813803</v>
+        <v>0.71727997548138034</v>
       </c>
       <c r="G35">
-        <v>0.5685392700524172</v>
+        <v>0.56853927005241722</v>
       </c>
       <c r="H35">
-        <v>0.4535995838087349</v>
+        <v>0.45359958380873489</v>
       </c>
       <c r="I35">
-        <v>-0.3668404783649625</v>
+        <v>-0.36684047836496247</v>
       </c>
       <c r="J35">
         <v>0.56789977486845</v>
@@ -2250,16 +2273,16 @@
         <v>0.7450621313443041</v>
       </c>
       <c r="L35">
-        <v>0.7137944974492287</v>
+        <v>0.71379449744922874</v>
       </c>
       <c r="M35">
-        <v>0.5701958102355845</v>
+        <v>0.57019581023558452</v>
       </c>
       <c r="N35">
-        <v>0.4563615823491968</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>0.45636158234919683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2267,43 +2290,43 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-3.809317462057089</v>
+        <v>-3.8093174620570891</v>
       </c>
       <c r="D36">
-        <v>-1.12395191017363</v>
+        <v>-1.1239519101736299</v>
       </c>
       <c r="E36">
-        <v>1.964442137655687</v>
+        <v>1.9644421376556871</v>
       </c>
       <c r="F36">
-        <v>0.0001424028751887769</v>
+        <v>1.4240287518877689E-4</v>
       </c>
       <c r="G36">
-        <v>0.2611316001538778</v>
+        <v>0.26113160015387782</v>
       </c>
       <c r="H36">
-        <v>0.04957947227159526</v>
+        <v>4.957947227159526E-2</v>
       </c>
       <c r="I36">
-        <v>-3.780808713406996</v>
+        <v>-3.7808087134069961</v>
       </c>
       <c r="J36">
         <v>-1.111624732676642</v>
       </c>
       <c r="K36">
-        <v>1.937533605064868</v>
+        <v>1.9375336050648679</v>
       </c>
       <c r="L36">
-        <v>0.0001630221760379699</v>
+        <v>1.630221760379699E-4</v>
       </c>
       <c r="M36">
-        <v>0.2664940037609118</v>
+        <v>0.26649400376091181</v>
       </c>
       <c r="N36">
-        <v>0.05288485639227672</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>5.2884856392276719E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2311,25 +2334,25 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-1.21444114611151</v>
+        <v>-1.2144411461115101</v>
       </c>
       <c r="D37">
-        <v>2.962740919521346</v>
+        <v>2.9627409195213459</v>
       </c>
       <c r="E37">
-        <v>3.932901881854652</v>
+        <v>3.9329018818546522</v>
       </c>
       <c r="F37">
         <v>0.2246836596215783</v>
       </c>
       <c r="G37">
-        <v>0.003075293923457388</v>
+        <v>3.075293923457388E-3</v>
       </c>
       <c r="H37">
-        <v>8.600222940725875e-05</v>
+        <v>8.6002229407258754E-5</v>
       </c>
       <c r="I37">
-        <v>-1.215992243782592</v>
+        <v>-1.2159922437825921</v>
       </c>
       <c r="J37">
         <v>2.941156759831717</v>
@@ -2338,16 +2361,16 @@
         <v>3.979285378272563</v>
       </c>
       <c r="L37">
-        <v>0.2241967437879304</v>
+        <v>0.22419674378793039</v>
       </c>
       <c r="M37">
-        <v>0.00332464373416192</v>
+        <v>3.32464373416192E-3</v>
       </c>
       <c r="N37">
-        <v>7.27310121565863e-05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>7.2731012156586304E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2355,25 +2378,25 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>3.797389548242812</v>
+        <v>3.7973895482428119</v>
       </c>
       <c r="D38">
-        <v>-6.699812072775755</v>
+        <v>-6.6998120727757549</v>
       </c>
       <c r="E38">
         <v>-10.08431482780402</v>
       </c>
       <c r="F38">
-        <v>0.0001493925177906771</v>
+        <v>1.493925177906771E-4</v>
       </c>
       <c r="G38">
-        <v>2.521933385597291e-11</v>
+        <v>2.5219333855972909E-11</v>
       </c>
       <c r="H38">
-        <v>1.653184640662283e-23</v>
+        <v>1.653184640662283E-23</v>
       </c>
       <c r="I38">
-        <v>3.728271100253256</v>
+        <v>3.7282711002532558</v>
       </c>
       <c r="J38">
         <v>-6.533779928556072</v>
@@ -2382,16 +2405,16 @@
         <v>-10.37188281113378</v>
       </c>
       <c r="L38">
-        <v>0.0002006337511385023</v>
+        <v>2.0063375113850231E-4</v>
       </c>
       <c r="M38">
-        <v>9.010227578400749e-11</v>
+        <v>9.010227578400749E-11</v>
       </c>
       <c r="N38">
-        <v>2.558480893148693e-24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>2.5584808931486929E-24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2402,40 +2425,40 @@
         <v>-1.808704868007299</v>
       </c>
       <c r="D39">
-        <v>-9.365061056922665</v>
+        <v>-9.3650610569226647</v>
       </c>
       <c r="E39">
-        <v>-8.331501386857559</v>
+        <v>-8.3315013868575587</v>
       </c>
       <c r="F39">
-        <v>0.07060612118474839</v>
+        <v>7.0606121184748391E-2</v>
       </c>
       <c r="G39">
-        <v>1.531911774084012e-20</v>
+        <v>1.5319117740840119E-20</v>
       </c>
       <c r="H39">
-        <v>1.243761135041449e-16</v>
+        <v>1.2437611350414489E-16</v>
       </c>
       <c r="I39">
-        <v>-1.772752987229813</v>
+        <v>-1.7727529872298129</v>
       </c>
       <c r="J39">
-        <v>-9.404555358146814</v>
+        <v>-9.4045553581468138</v>
       </c>
       <c r="K39">
-        <v>-8.691193492930617</v>
+        <v>-8.6911934929306174</v>
       </c>
       <c r="L39">
-        <v>0.07649116939410285</v>
+        <v>7.6491169394102845E-2</v>
       </c>
       <c r="M39">
-        <v>2.110581989739513e-20</v>
+        <v>2.110581989739513E-20</v>
       </c>
       <c r="N39">
-        <v>1.002823640778144e-17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>1.0028236407781439E-17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2446,40 +2469,40 @@
         <v>-1.697833355354978</v>
       </c>
       <c r="D40">
-        <v>-6.809211245879722</v>
+        <v>-6.8092112458797223</v>
       </c>
       <c r="E40">
-        <v>-5.851456684762897</v>
+        <v>-5.8514566847628968</v>
       </c>
       <c r="F40">
-        <v>0.089652438245164</v>
+        <v>8.9652438245164001E-2</v>
       </c>
       <c r="G40">
-        <v>1.200654084263767e-11</v>
+        <v>1.200654084263767E-11</v>
       </c>
       <c r="H40">
-        <v>5.449784205824037e-09</v>
+        <v>5.4497842058240371E-9</v>
       </c>
       <c r="I40">
-        <v>-1.730953663072433</v>
+        <v>-1.7309536630724329</v>
       </c>
       <c r="J40">
         <v>-6.7670287641378</v>
       </c>
       <c r="K40">
-        <v>-5.803326472451722</v>
+        <v>-5.8033264724517224</v>
       </c>
       <c r="L40">
-        <v>0.08368452538229218</v>
+        <v>8.368452538229218E-2</v>
       </c>
       <c r="M40">
-        <v>1.940600764229534e-11</v>
+        <v>1.9406007642295341E-11</v>
       </c>
       <c r="N40">
-        <v>8.06080777903817e-09</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>8.0608077790381697E-9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2487,43 +2510,43 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>7.157323482913711</v>
+        <v>7.1573234829137107</v>
       </c>
       <c r="D41">
-        <v>0.6180752325503376</v>
+        <v>0.61807523255033758</v>
       </c>
       <c r="E41">
-        <v>-6.083381435937759</v>
+        <v>-6.0833814359377589</v>
       </c>
       <c r="F41">
-        <v>1.05103514096148e-12</v>
+        <v>1.05103514096148E-12</v>
       </c>
       <c r="G41">
-        <v>0.5365769673701791</v>
+        <v>0.53657696737017913</v>
       </c>
       <c r="H41">
-        <v>1.340241341978312e-09</v>
+        <v>1.3402413419783119E-9</v>
       </c>
       <c r="I41">
-        <v>7.129164738462028</v>
+        <v>7.1291647384620278</v>
       </c>
       <c r="J41">
-        <v>0.6083305726466833</v>
+        <v>0.60833057264668333</v>
       </c>
       <c r="K41">
-        <v>-6.218556391933946</v>
+        <v>-6.2185563919339462</v>
       </c>
       <c r="L41">
-        <v>1.626592432363591e-12</v>
+        <v>1.6265924323635909E-12</v>
       </c>
       <c r="M41">
-        <v>0.5430687932034921</v>
+        <v>0.54306879320349211</v>
       </c>
       <c r="N41">
-        <v>6.644223626651512e-10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>6.6442236266515115E-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2531,25 +2554,25 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>3.797389548242812</v>
+        <v>3.7973895482428119</v>
       </c>
       <c r="D42">
-        <v>-6.699812072775755</v>
+        <v>-6.6998120727757549</v>
       </c>
       <c r="E42">
         <v>-10.08431482780402</v>
       </c>
       <c r="F42">
-        <v>0.0001493925177906771</v>
+        <v>1.493925177906771E-4</v>
       </c>
       <c r="G42">
-        <v>2.521933385597291e-11</v>
+        <v>2.5219333855972909E-11</v>
       </c>
       <c r="H42">
-        <v>1.653184640662283e-23</v>
+        <v>1.653184640662283E-23</v>
       </c>
       <c r="I42">
-        <v>3.728271100253256</v>
+        <v>3.7282711002532558</v>
       </c>
       <c r="J42">
         <v>-6.533779928556072</v>
@@ -2558,16 +2581,16 @@
         <v>-10.37188281113378</v>
       </c>
       <c r="L42">
-        <v>0.0002006337511385023</v>
+        <v>2.0063375113850231E-4</v>
       </c>
       <c r="M42">
-        <v>9.010227578400749e-11</v>
+        <v>9.010227578400749E-11</v>
       </c>
       <c r="N42">
-        <v>2.558480893148693e-24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>2.5584808931486929E-24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2575,43 +2598,43 @@
         <v>54</v>
       </c>
       <c r="C43">
-        <v>-1.824544038325259</v>
+        <v>-1.8245440383252589</v>
       </c>
       <c r="D43">
-        <v>-9.81783087683376</v>
+        <v>-9.8178308768337601</v>
       </c>
       <c r="E43">
-        <v>-8.798481045870341</v>
+        <v>-8.7984810458703411</v>
       </c>
       <c r="F43">
-        <v>0.06817839425558261</v>
+        <v>6.8178394255582614E-2</v>
       </c>
       <c r="G43">
-        <v>2.192417990879118e-22</v>
+        <v>2.1924179908791179E-22</v>
       </c>
       <c r="H43">
-        <v>2.40122837251894e-18</v>
+        <v>2.4012283725189398E-18</v>
       </c>
       <c r="I43">
         <v>-1.787109394674345</v>
       </c>
       <c r="J43">
-        <v>-9.826334756206602</v>
+        <v>-9.8263347562066023</v>
       </c>
       <c r="K43">
-        <v>-9.065827118540602</v>
+        <v>-9.0658271185406019</v>
       </c>
       <c r="L43">
-        <v>0.07414018055971588</v>
+        <v>7.4140180559715885E-2</v>
       </c>
       <c r="M43">
-        <v>4.536399511481245e-22</v>
+        <v>4.5363995114812446E-22</v>
       </c>
       <c r="N43">
-        <v>4.151379047145603e-19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>4.1513790471456029E-19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2619,7 +2642,7 @@
         <v>55</v>
       </c>
       <c r="C44">
-        <v>4.52303936013253</v>
+        <v>4.5230393601325298</v>
       </c>
       <c r="D44">
         <v>0.1196634168633878</v>
@@ -2628,34 +2651,34 @@
         <v>-4.38115130385561</v>
       </c>
       <c r="F44">
-        <v>6.354285138702303e-06</v>
+        <v>6.3542851387023034E-6</v>
       </c>
       <c r="G44">
-        <v>0.9047585283991291</v>
+        <v>0.90475852839912907</v>
       </c>
       <c r="H44">
-        <v>1.224766116194319e-05</v>
+        <v>1.224766116194319E-5</v>
       </c>
       <c r="I44">
-        <v>4.543004589331368</v>
+        <v>4.5430045893313684</v>
       </c>
       <c r="J44">
-        <v>0.1178062949583406</v>
+        <v>0.11780629495834059</v>
       </c>
       <c r="K44">
-        <v>-4.372063876178111</v>
+        <v>-4.3720638761781112</v>
       </c>
       <c r="L44">
-        <v>6.032146151203962e-06</v>
+        <v>6.0321461512039618E-6</v>
       </c>
       <c r="M44">
-        <v>0.9062383600808155</v>
+        <v>0.90623836008081549</v>
       </c>
       <c r="N44">
-        <v>1.323521257259319e-05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>1.3235212572593189E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2663,43 +2686,43 @@
         <v>56</v>
       </c>
       <c r="C45">
-        <v>-8.194351214178326</v>
+        <v>-8.1943512141783259</v>
       </c>
       <c r="D45">
-        <v>-5.250296616054235</v>
+        <v>-5.2502966160542348</v>
       </c>
       <c r="E45">
         <v>2.746572132716218</v>
       </c>
       <c r="F45">
-        <v>3.817777155539472e-16</v>
+        <v>3.8177771555394718E-16</v>
       </c>
       <c r="G45">
-        <v>1.634509467983745e-07</v>
+        <v>1.6345094679837449E-7</v>
       </c>
       <c r="H45">
-        <v>0.00606141663460785</v>
+        <v>6.0614166346078498E-3</v>
       </c>
       <c r="I45">
-        <v>-7.80814584524822</v>
+        <v>-7.8081458452482204</v>
       </c>
       <c r="J45">
-        <v>-4.989551068636861</v>
+        <v>-4.9895510686368612</v>
       </c>
       <c r="K45">
         <v>2.728275562499249</v>
       </c>
       <c r="L45">
-        <v>1.143822473444178e-14</v>
+        <v>1.143822473444178E-14</v>
       </c>
       <c r="M45">
-        <v>6.825419538772344e-07</v>
+        <v>6.825419538772344E-7</v>
       </c>
       <c r="N45">
-        <v>0.006447778822780464</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>6.4477788227804639E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2707,43 +2730,43 @@
         <v>57</v>
       </c>
       <c r="C46">
-        <v>-7.100093587929337</v>
+        <v>-7.1000935879293374</v>
       </c>
       <c r="D46">
         <v>-1.654402729483655</v>
       </c>
       <c r="E46">
-        <v>5.516174390038148</v>
+        <v>5.5161743900381479</v>
       </c>
       <c r="F46">
-        <v>1.580809142136261e-12</v>
+        <v>1.580809142136261E-12</v>
       </c>
       <c r="G46">
-        <v>0.09815991522172418</v>
+        <v>9.8159915221724181E-2</v>
       </c>
       <c r="H46">
-        <v>3.787256562045028e-08</v>
+        <v>3.7872565620450279E-8</v>
       </c>
       <c r="I46">
-        <v>-6.820665684014197</v>
+        <v>-6.8206656840141973</v>
       </c>
       <c r="J46">
-        <v>-1.572163631162668</v>
+        <v>-1.5721636311626681</v>
       </c>
       <c r="K46">
-        <v>5.392089522536823</v>
+        <v>5.3920895225368231</v>
       </c>
       <c r="L46">
-        <v>1.354065227630382e-11</v>
+        <v>1.3540652276303819E-11</v>
       </c>
       <c r="M46">
-        <v>0.1161428375132846</v>
+        <v>0.11614283751328459</v>
       </c>
       <c r="N46">
-        <v>8.189054805982765e-08</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>8.1890548059827648E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2751,43 +2774,43 @@
         <v>58</v>
       </c>
       <c r="C47">
-        <v>-7.838685477993965</v>
+        <v>-7.8386854779939652</v>
       </c>
       <c r="D47">
-        <v>-4.914513844885636</v>
+        <v>-4.9145138448856356</v>
       </c>
       <c r="E47">
-        <v>2.689156487744358</v>
+        <v>2.6891564877443579</v>
       </c>
       <c r="F47">
-        <v>6.457066108907644e-15</v>
+        <v>6.4570661089076443E-15</v>
       </c>
       <c r="G47">
-        <v>9.422998372497762e-07</v>
+        <v>9.4229983724977615E-7</v>
       </c>
       <c r="H47">
-        <v>0.007206557360918658</v>
+        <v>7.2065573609186584E-3</v>
       </c>
       <c r="I47">
-        <v>-7.425069805447429</v>
+        <v>-7.4250698054474293</v>
       </c>
       <c r="J47">
-        <v>-4.61741402150415</v>
+        <v>-4.6174140215041497</v>
       </c>
       <c r="K47">
-        <v>2.699489938757429</v>
+        <v>2.6994899387574289</v>
       </c>
       <c r="L47">
-        <v>1.969793013750978e-13</v>
+        <v>1.9697930137509781E-13</v>
       </c>
       <c r="M47">
-        <v>4.249008234692636e-06</v>
+        <v>4.2490082346926361E-6</v>
       </c>
       <c r="N47">
-        <v>0.007029771606279241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>7.029771606279241E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2795,7 +2818,7 @@
         <v>59</v>
       </c>
       <c r="C48">
-        <v>4.52303936013253</v>
+        <v>4.5230393601325298</v>
       </c>
       <c r="D48">
         <v>0.1196634168633878</v>
@@ -2804,34 +2827,34 @@
         <v>-4.38115130385561</v>
       </c>
       <c r="F48">
-        <v>6.354285138702303e-06</v>
+        <v>6.3542851387023034E-6</v>
       </c>
       <c r="G48">
-        <v>0.9047585283991291</v>
+        <v>0.90475852839912907</v>
       </c>
       <c r="H48">
-        <v>1.224766116194319e-05</v>
+        <v>1.224766116194319E-5</v>
       </c>
       <c r="I48">
-        <v>4.543004589331368</v>
+        <v>4.5430045893313684</v>
       </c>
       <c r="J48">
-        <v>0.1178062949583406</v>
+        <v>0.11780629495834059</v>
       </c>
       <c r="K48">
-        <v>-4.372063876178111</v>
+        <v>-4.3720638761781112</v>
       </c>
       <c r="L48">
-        <v>6.032146151203962e-06</v>
+        <v>6.0321461512039618E-6</v>
       </c>
       <c r="M48">
-        <v>0.9062383600808155</v>
+        <v>0.90623836008081549</v>
       </c>
       <c r="N48">
-        <v>1.323521257259319e-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>1.3235212572593189E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2845,16 +2868,16 @@
         <v>-2.513635707224255</v>
       </c>
       <c r="E49">
-        <v>0.8956238268021595</v>
+        <v>0.89562382680215946</v>
       </c>
       <c r="F49">
-        <v>0.0003622966235132785</v>
+        <v>3.6229662351327851E-4</v>
       </c>
       <c r="G49">
-        <v>0.01200612895840766</v>
+        <v>1.200612895840766E-2</v>
       </c>
       <c r="H49">
-        <v>0.3705321495398665</v>
+        <v>0.37053214953986652</v>
       </c>
       <c r="I49">
         <v>-3.493666552742781</v>
@@ -2863,19 +2886,19 @@
         <v>-2.440913778221077</v>
       </c>
       <c r="K49">
-        <v>0.881649410538311</v>
+        <v>0.88164941053831103</v>
       </c>
       <c r="L49">
-        <v>0.0004915652270050829</v>
+        <v>4.9156522700508293E-4</v>
       </c>
       <c r="M49">
-        <v>0.0147757043640453</v>
+        <v>1.47757043640453E-2</v>
       </c>
       <c r="N49">
-        <v>0.3781206282124183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>0.37812062821241832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2883,43 +2906,43 @@
         <v>61</v>
       </c>
       <c r="C50">
-        <v>1.582391728855921</v>
+        <v>1.5823917288559211</v>
       </c>
       <c r="D50">
-        <v>2.57459777718243</v>
+        <v>2.5745977771824302</v>
       </c>
       <c r="E50">
-        <v>0.9706562525654949</v>
+        <v>0.97065625256549493</v>
       </c>
       <c r="F50">
         <v>0.1136752478015758</v>
       </c>
       <c r="G50">
-        <v>0.01008756357000538</v>
+        <v>1.008756357000538E-2</v>
       </c>
       <c r="H50">
-        <v>0.3318049092108368</v>
+        <v>0.33180490921083677</v>
       </c>
       <c r="I50">
-        <v>1.549277187416254</v>
+        <v>1.5492771874162541</v>
       </c>
       <c r="J50">
         <v>2.556973292166778</v>
       </c>
       <c r="K50">
-        <v>0.9559424641569847</v>
+        <v>0.95594246415698469</v>
       </c>
       <c r="L50">
-        <v>0.1215453891251076</v>
+        <v>0.12154538912510759</v>
       </c>
       <c r="M50">
-        <v>0.01066539855192993</v>
+        <v>1.066539855192993E-2</v>
       </c>
       <c r="N50">
         <v>0.3392694610746545</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2927,25 +2950,25 @@
         <v>62</v>
       </c>
       <c r="C51">
-        <v>4.461041802615878</v>
+        <v>4.4610418026158776</v>
       </c>
       <c r="D51">
-        <v>1.022690806728889</v>
+        <v>1.0226908067288889</v>
       </c>
       <c r="E51">
         <v>-3.4494455945397</v>
       </c>
       <c r="F51">
-        <v>8.483994320889339e-06</v>
+        <v>8.483994320889339E-6</v>
       </c>
       <c r="G51">
-        <v>0.3065440791892023</v>
+        <v>0.30654407918920229</v>
       </c>
       <c r="H51">
-        <v>0.0005702001268846696</v>
+        <v>5.7020012688466964E-4</v>
       </c>
       <c r="I51">
-        <v>4.482353396268871</v>
+        <v>4.4823533962688709</v>
       </c>
       <c r="J51">
         <v>1.019364043194273</v>
@@ -2954,16 +2977,16 @@
         <v>-3.502841453406397</v>
       </c>
       <c r="L51">
-        <v>7.996245289769312e-06</v>
+        <v>7.9962452897693118E-6</v>
       </c>
       <c r="M51">
-        <v>0.3082096199167487</v>
+        <v>0.30820961991674872</v>
       </c>
       <c r="N51">
-        <v>0.0004750867192446696</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>4.7508671924466963E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2971,43 +2994,43 @@
         <v>63</v>
       </c>
       <c r="C52">
-        <v>0.930078331821829</v>
+        <v>0.93007833182182897</v>
       </c>
       <c r="D52">
-        <v>0.5616331991579476</v>
+        <v>0.56163319915794763</v>
       </c>
       <c r="E52">
-        <v>-0.3568409481872954</v>
+        <v>-0.35684094818729539</v>
       </c>
       <c r="F52">
-        <v>0.3524122232480422</v>
+        <v>0.35241222324804222</v>
       </c>
       <c r="G52">
-        <v>0.5744117558497944</v>
+        <v>0.57441175584979443</v>
       </c>
       <c r="H52">
-        <v>0.7212382774198451</v>
+        <v>0.72123827741984514</v>
       </c>
       <c r="I52">
-        <v>0.9419770319747405</v>
+        <v>0.94197703197474048</v>
       </c>
       <c r="J52">
-        <v>0.5585210407630596</v>
+        <v>0.55852104076305964</v>
       </c>
       <c r="K52">
-        <v>-0.3585505392280465</v>
+        <v>-0.35855053922804653</v>
       </c>
       <c r="L52">
         <v>0.3463699854510599</v>
       </c>
       <c r="M52">
-        <v>0.5765796444925066</v>
+        <v>0.57657964449250665</v>
       </c>
       <c r="N52">
-        <v>0.719986435310315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>0.71998643531031503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3015,7 +3038,7 @@
         <v>64</v>
       </c>
       <c r="C53">
-        <v>8.492533379137184</v>
+        <v>8.4925333791371838</v>
       </c>
       <c r="D53">
         <v>4.837852466840566</v>
@@ -3024,34 +3047,34 @@
         <v>-4.012926212522804</v>
       </c>
       <c r="F53">
-        <v>3.260801372485804e-17</v>
+        <v>3.2608013724858043E-17</v>
       </c>
       <c r="G53">
-        <v>1.384939800071817e-06</v>
+        <v>1.384939800071817E-6</v>
       </c>
       <c r="H53">
-        <v>6.157262281803005e-05</v>
+        <v>6.1572622818030045E-5</v>
       </c>
       <c r="I53">
-        <v>8.366664184060655</v>
+        <v>8.3666641840606548</v>
       </c>
       <c r="J53">
-        <v>4.752811239757962</v>
+        <v>4.7528112397579623</v>
       </c>
       <c r="K53">
-        <v>-4.103970764345632</v>
+        <v>-4.1039707643456316</v>
       </c>
       <c r="L53">
-        <v>1.439173326383822e-16</v>
+        <v>1.4391733263838219E-16</v>
       </c>
       <c r="M53">
-        <v>2.216744108702806e-06</v>
+        <v>2.2167441087028059E-6</v>
       </c>
       <c r="N53">
-        <v>4.300114289456669e-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>4.3001142894566687E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3065,37 +3088,37 @@
         <v>2.292657654186586</v>
       </c>
       <c r="E54">
-        <v>-0.05899126719555198</v>
+        <v>-5.8991267195551977E-2</v>
       </c>
       <c r="F54">
-        <v>0.02641784898426657</v>
+        <v>2.6417848984266568E-2</v>
       </c>
       <c r="G54">
-        <v>0.02194294622315092</v>
+        <v>2.1942946223150919E-2</v>
       </c>
       <c r="H54">
-        <v>0.9529633530471995</v>
+        <v>0.95296335304719948</v>
       </c>
       <c r="I54">
-        <v>2.258562121366415</v>
+        <v>2.2585621213664151</v>
       </c>
       <c r="J54">
-        <v>2.305998638650135</v>
+        <v>2.3059986386501352</v>
       </c>
       <c r="K54">
-        <v>-0.06035677551478541</v>
+        <v>-6.035677551478541E-2</v>
       </c>
       <c r="L54">
-        <v>0.02406689604391304</v>
+        <v>2.4066896043913041E-2</v>
       </c>
       <c r="M54">
-        <v>0.02125898167926285</v>
+        <v>2.1258981679262851E-2</v>
       </c>
       <c r="N54">
-        <v>0.9518802614422504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>0.95188026144225035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3103,43 +3126,43 @@
         <v>66</v>
       </c>
       <c r="C55">
-        <v>1.202620397696965</v>
+        <v>1.2026203976969649</v>
       </c>
       <c r="D55">
-        <v>2.179937501209064</v>
+        <v>2.1799375012090638</v>
       </c>
       <c r="E55">
-        <v>0.8004382048130806</v>
+        <v>0.80043820481308059</v>
       </c>
       <c r="F55">
-        <v>0.229226860008565</v>
+        <v>0.22922686000856499</v>
       </c>
       <c r="G55">
-        <v>0.0293466967683862</v>
+        <v>2.93466967683862E-2</v>
       </c>
       <c r="H55">
-        <v>0.4235261460030244</v>
+        <v>0.42352614600302441</v>
       </c>
       <c r="I55">
-        <v>1.224422223023982</v>
+        <v>1.2244222230239821</v>
       </c>
       <c r="J55">
         <v>2.218546625409926</v>
       </c>
       <c r="K55">
-        <v>0.8192706195593474</v>
+        <v>0.81927061955934743</v>
       </c>
       <c r="L55">
-        <v>0.2210028807901605</v>
+        <v>0.22100288079016051</v>
       </c>
       <c r="M55">
-        <v>0.02668051193057917</v>
+        <v>2.668051193057917E-2</v>
       </c>
       <c r="N55">
-        <v>0.4127741111761732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>0.41277411117617319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3147,19 +3170,19 @@
         <v>67</v>
       </c>
       <c r="C56">
-        <v>3.881915092071863</v>
+        <v>3.8819150920718628</v>
       </c>
       <c r="D56">
         <v>2.347107347083961</v>
       </c>
       <c r="E56">
-        <v>-1.560440743942129</v>
+        <v>-1.5604407439421291</v>
       </c>
       <c r="F56">
-        <v>0.0001060758580270367</v>
+        <v>1.060758580270367E-4</v>
       </c>
       <c r="G56">
-        <v>0.01899042185948982</v>
+        <v>1.899042185948982E-2</v>
       </c>
       <c r="H56">
         <v>0.1187709118360052</v>
@@ -3171,19 +3194,19 @@
         <v>2.381673085574231</v>
       </c>
       <c r="K56">
-        <v>-1.602210379812533</v>
+        <v>-1.6022103798125329</v>
       </c>
       <c r="L56">
-        <v>8.751838733990331e-05</v>
+        <v>8.7518387339903314E-5</v>
       </c>
       <c r="M56">
-        <v>0.01736967398962255</v>
+        <v>1.7369673989622549E-2</v>
       </c>
       <c r="N56">
         <v>0.1093389484770783</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3191,43 +3214,43 @@
         <v>68</v>
       </c>
       <c r="C57">
-        <v>2.235619725682689</v>
+        <v>2.2356197256826889</v>
       </c>
       <c r="D57">
-        <v>-7.792192168322972</v>
+        <v>-7.7921921683229716</v>
       </c>
       <c r="E57">
-        <v>-9.148143043044946</v>
+        <v>-9.1481430430449464</v>
       </c>
       <c r="F57">
-        <v>0.02545670328680105</v>
+        <v>2.5456703286801049E-2</v>
       </c>
       <c r="G57">
-        <v>9.265322663546809e-15</v>
+        <v>9.2653226635468093E-15</v>
       </c>
       <c r="H57">
-        <v>1.097836002250144e-19</v>
+        <v>1.0978360022501439E-19</v>
       </c>
       <c r="I57">
-        <v>2.177633669578637</v>
+        <v>2.1776336695786371</v>
       </c>
       <c r="J57">
         <v>-7.74845471670195</v>
       </c>
       <c r="K57">
-        <v>-9.491519243135812</v>
+        <v>-9.4915192431358122</v>
       </c>
       <c r="L57">
-        <v>0.02960296040107985</v>
+        <v>2.9602960401079851E-2</v>
       </c>
       <c r="M57">
-        <v>1.797154323605311e-14</v>
+        <v>1.7971543236053109E-14</v>
       </c>
       <c r="N57">
-        <v>9.675408170228033e-21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>9.6754081702280327E-21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3235,43 +3258,43 @@
         <v>69</v>
       </c>
       <c r="C58">
-        <v>2.306763588753163</v>
+        <v>2.3067635887531628</v>
       </c>
       <c r="D58">
-        <v>-7.967587570092339</v>
+        <v>-7.9675875700923386</v>
       </c>
       <c r="E58">
         <v>-9.360072580786456</v>
       </c>
       <c r="F58">
-        <v>0.02114203547767536</v>
+        <v>2.1142035477675361E-2</v>
       </c>
       <c r="G58">
-        <v>2.348137097113561e-15</v>
+        <v>2.3481370971135612E-15</v>
       </c>
       <c r="H58">
-        <v>1.60365031984486e-20</v>
+        <v>1.6036503198448599E-20</v>
       </c>
       <c r="I58">
-        <v>2.247000391669686</v>
+        <v>2.2470003916696859</v>
       </c>
       <c r="J58">
-        <v>-7.908057089039312</v>
+        <v>-7.9080570890393123</v>
       </c>
       <c r="K58">
-        <v>-9.717062362706034</v>
+        <v>-9.7170623627060344</v>
       </c>
       <c r="L58">
-        <v>0.02479819674324316</v>
+        <v>2.479819674324316E-2</v>
       </c>
       <c r="M58">
-        <v>5.332551060170975e-15</v>
+        <v>5.3325510601709746E-15</v>
       </c>
       <c r="N58">
-        <v>1.243803131148778e-21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>1.243803131148778E-21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3279,43 +3302,43 @@
         <v>70</v>
       </c>
       <c r="C59">
-        <v>0.1261256676185327</v>
+        <v>0.12612566761853269</v>
       </c>
       <c r="D59">
-        <v>-2.678757552888955</v>
+        <v>-2.6787575528889551</v>
       </c>
       <c r="E59">
         <v>-3.20174753611786</v>
       </c>
       <c r="F59">
-        <v>0.8996416765972781</v>
+        <v>0.89964167659727812</v>
       </c>
       <c r="G59">
-        <v>0.007433613027651125</v>
+        <v>7.4336130276511248E-3</v>
       </c>
       <c r="H59">
-        <v>0.00138155703643591</v>
+        <v>1.3815570364359099E-3</v>
       </c>
       <c r="I59">
         <v>0.1259742807828915</v>
       </c>
       <c r="J59">
-        <v>-2.705537378346632</v>
+        <v>-2.7055373783466319</v>
       </c>
       <c r="K59">
-        <v>-3.124568583109871</v>
+        <v>-3.1245685831098711</v>
       </c>
       <c r="L59">
-        <v>0.899770713401143</v>
+        <v>0.89977071340114301</v>
       </c>
       <c r="M59">
-        <v>0.006903724323562596</v>
+        <v>6.903724323562596E-3</v>
       </c>
       <c r="N59">
-        <v>0.001817912106802095</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>1.817912106802095E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3323,43 +3346,43 @@
         <v>71</v>
       </c>
       <c r="C60">
-        <v>-8.599592727054244</v>
+        <v>-8.5995927270542438</v>
       </c>
       <c r="D60">
         <v>-5.19408575230183</v>
       </c>
       <c r="E60">
-        <v>2.667366189077596</v>
+        <v>2.6673661890775962</v>
       </c>
       <c r="F60">
-        <v>1.321600473606696e-17</v>
+        <v>1.321600473606696E-17</v>
       </c>
       <c r="G60">
-        <v>2.207777545346345e-07</v>
+        <v>2.2077775453463449E-7</v>
       </c>
       <c r="H60">
-        <v>0.007689687921353558</v>
+        <v>7.6896879213535583E-3</v>
       </c>
       <c r="I60">
-        <v>-8.318667050213065</v>
+        <v>-8.3186670502130653</v>
       </c>
       <c r="J60">
-        <v>-4.999780552763955</v>
+        <v>-4.9997805527639549</v>
       </c>
       <c r="K60">
         <v>2.574266745815927</v>
       </c>
       <c r="L60">
-        <v>2.118077137240367e-16</v>
+        <v>2.1180771372403669E-16</v>
       </c>
       <c r="M60">
-        <v>6.479211515672555e-07</v>
+        <v>6.4792115156725546E-7</v>
       </c>
       <c r="N60">
-        <v>0.010149224054758</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>1.0149224054758E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3367,7 +3390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3375,43 +3398,43 @@
         <v>73</v>
       </c>
       <c r="C62">
-        <v>-9.716907497331814</v>
+        <v>-9.7169074973318139</v>
       </c>
       <c r="D62">
-        <v>-10.6955657310046</v>
+        <v>-10.695565731004599</v>
       </c>
       <c r="E62">
         <v>-2.44088997566246</v>
       </c>
       <c r="F62">
-        <v>5.740040898031058e-22</v>
+        <v>5.7400408980310585E-22</v>
       </c>
       <c r="G62">
-        <v>3.470369077605651e-26</v>
+        <v>3.4703690776056512E-26</v>
       </c>
       <c r="H62">
-        <v>0.0147138476858348</v>
+        <v>1.4713847685834801E-2</v>
       </c>
       <c r="I62">
-        <v>-9.315787463973923</v>
+        <v>-9.3157874639739227</v>
       </c>
       <c r="J62">
         <v>-10.54272910281181</v>
       </c>
       <c r="K62">
-        <v>-2.375613164202076</v>
+        <v>-2.3756131642020759</v>
       </c>
       <c r="L62">
-        <v>4.649457728113623e-20</v>
+        <v>4.6494577281136228E-20</v>
       </c>
       <c r="M62">
-        <v>4.817603929572163e-25</v>
+        <v>4.8176039295721628E-25</v>
       </c>
       <c r="N62">
-        <v>0.01765632581951893</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>1.7656325819518929E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3419,43 +3442,43 @@
         <v>74</v>
       </c>
       <c r="C63">
-        <v>-8.291789248348787</v>
+        <v>-8.2917892483487865</v>
       </c>
       <c r="D63">
-        <v>-9.621917645832282</v>
+        <v>-9.6219176458322817</v>
       </c>
       <c r="E63">
-        <v>-3.887777027403076</v>
+        <v>-3.8877770274030761</v>
       </c>
       <c r="F63">
-        <v>1.724005368891693e-16</v>
+        <v>1.724005368891693E-16</v>
       </c>
       <c r="G63">
-        <v>1.408401169067207e-21</v>
+        <v>1.408401169067207E-21</v>
       </c>
       <c r="H63">
-        <v>0.0001035608761082826</v>
+        <v>1.0356087610828261E-4</v>
       </c>
       <c r="I63">
-        <v>-8.006719021578387</v>
+        <v>-8.0067190215783874</v>
       </c>
       <c r="J63">
-        <v>-9.557020320320119</v>
+        <v>-9.5570203203201185</v>
       </c>
       <c r="K63">
-        <v>-3.77854393942825</v>
+        <v>-3.7785439394282498</v>
       </c>
       <c r="L63">
-        <v>2.488890299892387e-15</v>
+        <v>2.4888902998923872E-15</v>
       </c>
       <c r="M63">
-        <v>5.355189738537381e-21</v>
+        <v>5.3551897385373813E-21</v>
       </c>
       <c r="N63">
-        <v>0.0001644961909680426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>1.644961909680426E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3463,43 +3486,43 @@
         <v>75</v>
       </c>
       <c r="C64">
-        <v>-5.115513428430311</v>
+        <v>-5.1155134284303108</v>
       </c>
       <c r="D64">
-        <v>-8.57876696280279</v>
+        <v>-8.5787669628027903</v>
       </c>
       <c r="E64">
-        <v>-4.534964020581639</v>
+        <v>-4.5349640205816391</v>
       </c>
       <c r="F64">
-        <v>3.344284883746919e-07</v>
+        <v>3.3442848837469189E-7</v>
       </c>
       <c r="G64">
-        <v>1.576713626881825e-17</v>
+        <v>1.5767136268818249E-17</v>
       </c>
       <c r="H64">
-        <v>6.008163055553919e-06</v>
+        <v>6.0081630555539187E-6</v>
       </c>
       <c r="I64">
-        <v>-5.006447740998691</v>
+        <v>-5.0064477409986914</v>
       </c>
       <c r="J64">
-        <v>-8.575298181495043</v>
+        <v>-8.5752981814950431</v>
       </c>
       <c r="K64">
-        <v>-4.415744639796851</v>
+        <v>-4.4157446397968512</v>
       </c>
       <c r="L64">
-        <v>6.262753233969423e-07</v>
+        <v>6.2627532339694229E-7</v>
       </c>
       <c r="M64">
-        <v>2.622908421662973e-17</v>
+        <v>2.6229084216629731E-17</v>
       </c>
       <c r="N64">
-        <v>1.085515488640306e-05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>1.0855154886403061E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3507,7 +3530,7 @@
         <v>76</v>
       </c>
       <c r="C65">
-        <v>7.813530313245638</v>
+        <v>7.8135303132456384</v>
       </c>
       <c r="D65">
         <v>5.350963326204921</v>
@@ -3516,34 +3539,34 @@
         <v>-2.791681682859303</v>
       </c>
       <c r="F65">
-        <v>7.852224638287633e-15</v>
+        <v>7.8522246382876334E-15</v>
       </c>
       <c r="G65">
-        <v>9.469638744102585e-08</v>
+        <v>9.4696387441025853E-8</v>
       </c>
       <c r="H65">
-        <v>0.005279737876737667</v>
+        <v>5.2797378767376673E-3</v>
       </c>
       <c r="I65">
-        <v>7.6237166684755</v>
+        <v>7.6237166684754998</v>
       </c>
       <c r="J65">
-        <v>5.246479209427323</v>
+        <v>5.2464792094273234</v>
       </c>
       <c r="K65">
         <v>-2.812112042717966</v>
       </c>
       <c r="L65">
-        <v>4.574419842898999e-14</v>
+        <v>4.5744198428989992E-14</v>
       </c>
       <c r="M65">
-        <v>1.793714991873408e-07</v>
+        <v>1.793714991873408E-7</v>
       </c>
       <c r="N65">
-        <v>0.004991718128797295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>4.9917181287972949E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3551,43 +3574,43 @@
         <v>77</v>
       </c>
       <c r="C66">
-        <v>12.65399702892578</v>
+        <v>12.653997028925779</v>
       </c>
       <c r="D66">
-        <v>4.452093897357026</v>
+        <v>4.4520938973570257</v>
       </c>
       <c r="E66">
-        <v>-10.41795202146839</v>
+        <v>-10.417952021468389</v>
       </c>
       <c r="F66">
-        <v>1.033254513446376e-35</v>
+        <v>1.033254513446376E-35</v>
       </c>
       <c r="G66">
-        <v>8.842779779710611e-06</v>
+        <v>8.8427797797106114E-6</v>
       </c>
       <c r="H66">
-        <v>5.947425852120305e-25</v>
+        <v>5.9474258521203054E-25</v>
       </c>
       <c r="I66">
-        <v>12.52568149818213</v>
+        <v>12.525681498182131</v>
       </c>
       <c r="J66">
-        <v>4.494584215097115</v>
+        <v>4.4945842150971149</v>
       </c>
       <c r="K66">
         <v>-10.36335774023212</v>
       </c>
       <c r="L66">
-        <v>3.669935615768824e-34</v>
+        <v>3.6699356157688241E-34</v>
       </c>
       <c r="M66">
-        <v>7.556457026309823e-06</v>
+        <v>7.5564570263098228E-6</v>
       </c>
       <c r="N66">
-        <v>2.779118351704338e-24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>2.779118351704338E-24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3598,40 +3621,40 @@
         <v>8.744607367110028</v>
       </c>
       <c r="D67">
-        <v>2.685936841420147</v>
+        <v>2.6859368414201472</v>
       </c>
       <c r="E67">
-        <v>-7.194334764110699</v>
+        <v>-7.1943347641106987</v>
       </c>
       <c r="F67">
-        <v>3.824736968775019e-18</v>
+        <v>3.8247369687750193E-18</v>
       </c>
       <c r="G67">
-        <v>0.007276182036142832</v>
+        <v>7.2761820361428317E-3</v>
       </c>
       <c r="H67">
-        <v>8.058918146932464e-13</v>
+        <v>8.0589181469324642E-13</v>
       </c>
       <c r="I67">
-        <v>8.639213801242734</v>
+        <v>8.6392138012427342</v>
       </c>
       <c r="J67">
         <v>2.742169350582742</v>
       </c>
       <c r="K67">
-        <v>-7.190698359105489</v>
+        <v>-7.1906983591054887</v>
       </c>
       <c r="L67">
-        <v>1.545632797371984e-17</v>
+        <v>1.545632797371984E-17</v>
       </c>
       <c r="M67">
-        <v>0.006182710727656474</v>
+        <v>6.1827107276564743E-3</v>
       </c>
       <c r="N67">
-        <v>1.055251420753763e-12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>1.055251420753763E-12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3642,40 +3665,40 @@
         <v>8.744607367110028</v>
       </c>
       <c r="D68">
-        <v>2.685936841420147</v>
+        <v>2.6859368414201472</v>
       </c>
       <c r="E68">
-        <v>-7.194334764110699</v>
+        <v>-7.1943347641106987</v>
       </c>
       <c r="F68">
-        <v>3.824736968775019e-18</v>
+        <v>3.8247369687750193E-18</v>
       </c>
       <c r="G68">
-        <v>0.007276182036142832</v>
+        <v>7.2761820361428317E-3</v>
       </c>
       <c r="H68">
-        <v>8.058918146932464e-13</v>
+        <v>8.0589181469324642E-13</v>
       </c>
       <c r="I68">
-        <v>8.639213801242734</v>
+        <v>8.6392138012427342</v>
       </c>
       <c r="J68">
         <v>2.742169350582742</v>
       </c>
       <c r="K68">
-        <v>-7.190698359105489</v>
+        <v>-7.1906983591054887</v>
       </c>
       <c r="L68">
-        <v>1.545632797371984e-17</v>
+        <v>1.545632797371984E-17</v>
       </c>
       <c r="M68">
-        <v>0.006182710727656474</v>
+        <v>6.1827107276564743E-3</v>
       </c>
       <c r="N68">
-        <v>1.055251420753763e-12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>1.055251420753763E-12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3683,43 +3706,43 @@
         <v>80</v>
       </c>
       <c r="C69">
-        <v>-7.958630383102602</v>
+        <v>-7.9586303831026024</v>
       </c>
       <c r="D69">
-        <v>-4.729607234460847</v>
+        <v>-4.7296072344608469</v>
       </c>
       <c r="E69">
         <v>3.788041730461766</v>
       </c>
       <c r="F69">
-        <v>2.520373464053598e-15</v>
+        <v>2.5203734640535982E-15</v>
       </c>
       <c r="G69">
-        <v>2.363142043295199e-06</v>
+        <v>2.3631420432951991E-6</v>
       </c>
       <c r="H69">
-        <v>0.0001550948019555009</v>
+        <v>1.5509480195550091E-4</v>
       </c>
       <c r="I69">
-        <v>-7.699945510654427</v>
+        <v>-7.6999455106544268</v>
       </c>
       <c r="J69">
-        <v>-4.652345855552953</v>
+        <v>-4.6523458555529533</v>
       </c>
       <c r="K69">
-        <v>3.877649314062533</v>
+        <v>3.8776493140625332</v>
       </c>
       <c r="L69">
-        <v>2.588633591476225e-14</v>
+        <v>2.5886335914762252E-14</v>
       </c>
       <c r="M69">
-        <v>3.598186252869329e-06</v>
+        <v>3.5981862528693292E-6</v>
       </c>
       <c r="N69">
-        <v>0.0001104536328860123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>1.104536328860123E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3730,40 +3753,40 @@
         <v>11.88772251251017</v>
       </c>
       <c r="D70">
-        <v>4.749455423736856</v>
+        <v>4.7494554237368556</v>
       </c>
       <c r="E70">
-        <v>-8.922565649838813</v>
+        <v>-8.9225656498388126</v>
       </c>
       <c r="F70">
-        <v>8.144548657108654e-32</v>
+        <v>8.1445486571086537E-32</v>
       </c>
       <c r="G70">
-        <v>2.14435569228764e-06</v>
+        <v>2.1443556922876401E-6</v>
       </c>
       <c r="H70">
-        <v>8.136589047269614e-19</v>
+        <v>8.1365890472696144E-19</v>
       </c>
       <c r="I70">
-        <v>11.77190783074382</v>
+        <v>11.771907830743819</v>
       </c>
       <c r="J70">
-        <v>4.816619902059918</v>
+        <v>4.8166199020599176</v>
       </c>
       <c r="K70">
-        <v>-8.931402861510842</v>
+        <v>-8.9314028615108416</v>
       </c>
       <c r="L70">
-        <v>1.512210643028545e-30</v>
+        <v>1.512210643028545E-30</v>
       </c>
       <c r="M70">
-        <v>1.621883640663722e-06</v>
+        <v>1.6218836406637219E-6</v>
       </c>
       <c r="N70">
-        <v>1.319065009357189e-18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>1.3190650093571889E-18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3771,7 +3794,7 @@
         <v>82</v>
       </c>
       <c r="C71">
-        <v>10.11479478554159</v>
+        <v>10.114794785541591</v>
       </c>
       <c r="D71">
         <v>5.399464859521645</v>
@@ -3780,34 +3803,34 @@
         <v>-6.783872830837149</v>
       </c>
       <c r="F71">
-        <v>1.225113316757362e-23</v>
+        <v>1.225113316757362E-23</v>
       </c>
       <c r="G71">
-        <v>7.255103999757014e-08</v>
+        <v>7.2551039997570139E-8</v>
       </c>
       <c r="H71">
-        <v>1.427255526523245e-11</v>
+        <v>1.427255526523245E-11</v>
       </c>
       <c r="I71">
-        <v>10.0003864415605</v>
+        <v>10.000386441560501</v>
       </c>
       <c r="J71">
-        <v>5.466580286310149</v>
+        <v>5.4665802863101494</v>
       </c>
       <c r="K71">
-        <v>-6.807156323822793</v>
+        <v>-6.8071563238227926</v>
       </c>
       <c r="L71">
-        <v>8.921077439531221e-23</v>
+        <v>8.9210774395312211E-23</v>
       </c>
       <c r="M71">
-        <v>5.44244508444847e-08</v>
+        <v>5.4424450844484698E-8</v>
       </c>
       <c r="N71">
-        <v>1.482892418211201e-11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>1.4828924182112011E-11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3818,40 +3841,40 @@
         <v>17.13532933318438</v>
       </c>
       <c r="D72">
-        <v>5.784931354714765</v>
+        <v>5.7849313547147654</v>
       </c>
       <c r="E72">
-        <v>-11.97473942671058</v>
+        <v>-11.974739426710579</v>
       </c>
       <c r="F72">
-        <v>1.292583814516235e-62</v>
+        <v>1.292583814516235E-62</v>
       </c>
       <c r="G72">
-        <v>8.073810354697579e-09</v>
+        <v>8.0738103546975785E-9</v>
       </c>
       <c r="H72">
-        <v>3.014485910494755e-32</v>
+        <v>3.0144859104947552E-32</v>
       </c>
       <c r="I72">
-        <v>17.25503201214543</v>
+        <v>17.255032012145431</v>
       </c>
       <c r="J72">
-        <v>5.75856718425687</v>
+        <v>5.7585671842568704</v>
       </c>
       <c r="K72">
-        <v>-11.46820324813224</v>
+        <v>-11.468203248132239</v>
       </c>
       <c r="L72">
-        <v>1.537259109667544e-60</v>
+        <v>1.537259109667544E-60</v>
       </c>
       <c r="M72">
-        <v>1.045179532383708e-08</v>
+        <v>1.045179532383708E-8</v>
       </c>
       <c r="N72">
-        <v>3.848402749989614e-29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>3.8484027499896138E-29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3862,40 +3885,40 @@
         <v>16.06418931699093</v>
       </c>
       <c r="D73">
-        <v>4.512241821000515</v>
+        <v>4.5122418210005151</v>
       </c>
       <c r="E73">
         <v>-12.60398410942673</v>
       </c>
       <c r="F73">
-        <v>1.42708183862199e-55</v>
+        <v>1.4270818386219899E-55</v>
       </c>
       <c r="G73">
-        <v>6.684092551251953e-06</v>
+        <v>6.6840925512519532E-6</v>
       </c>
       <c r="H73">
-        <v>1.883955558446606e-35</v>
+        <v>1.8839555584466061E-35</v>
       </c>
       <c r="I73">
         <v>16.16809890946227</v>
       </c>
       <c r="J73">
-        <v>4.48881615075165</v>
+        <v>4.4888161507516502</v>
       </c>
       <c r="K73">
         <v>-12.06382494146632</v>
       </c>
       <c r="L73">
-        <v>5.824062865007522e-54</v>
+        <v>5.8240628650075218E-54</v>
       </c>
       <c r="M73">
-        <v>7.760896304186971e-06</v>
+        <v>7.7608963041869713E-6</v>
       </c>
       <c r="N73">
-        <v>6.320706231867469e-32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>6.3207062318674687E-32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3903,43 +3926,43 @@
         <v>85</v>
       </c>
       <c r="C74">
-        <v>9.765134789161323</v>
+        <v>9.7651347891613227</v>
       </c>
       <c r="D74">
-        <v>6.691113498948114</v>
+        <v>6.6911134989481136</v>
       </c>
       <c r="E74">
         <v>-3.980525862416032</v>
       </c>
       <c r="F74">
-        <v>3.627983007396167e-22</v>
+        <v>3.6279830073961671E-22</v>
       </c>
       <c r="G74">
-        <v>2.673953029984577e-11</v>
+        <v>2.6739530299845769E-11</v>
       </c>
       <c r="H74">
-        <v>7.054370776934533e-05</v>
+        <v>7.0543707769345334E-5</v>
       </c>
       <c r="I74">
-        <v>9.576922802306036</v>
+        <v>9.5769228023060364</v>
       </c>
       <c r="J74">
-        <v>6.613651828490071</v>
+        <v>6.6136518284900712</v>
       </c>
       <c r="K74">
-        <v>-4.008855986597588</v>
+        <v>-4.0088559865975881</v>
       </c>
       <c r="L74">
-        <v>4.471142036834024e-21</v>
+        <v>4.4711420368340238E-21</v>
       </c>
       <c r="M74">
-        <v>5.355059122593826e-11</v>
+        <v>5.3550591225938262E-11</v>
       </c>
       <c r="N74">
-        <v>6.429109252997635e-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>6.4291092529976355E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3947,43 +3970,43 @@
         <v>86</v>
       </c>
       <c r="C75">
-        <v>3.640739010520828</v>
+        <v>3.6407390105208282</v>
       </c>
       <c r="D75">
-        <v>-6.982478514048853</v>
+        <v>-6.9824785140488528</v>
       </c>
       <c r="E75">
-        <v>-9.407556001409144</v>
+        <v>-9.4075560014091444</v>
       </c>
       <c r="F75">
-        <v>0.0002768726429560071</v>
+        <v>2.7687264295600712E-4</v>
       </c>
       <c r="G75">
-        <v>3.622680195381856e-12</v>
+        <v>3.6226801953818561E-12</v>
       </c>
       <c r="H75">
-        <v>1.03639393104054e-20</v>
+        <v>1.0363939310405399E-20</v>
       </c>
       <c r="I75">
-        <v>3.563438071115865</v>
+        <v>3.5634380711158649</v>
       </c>
       <c r="J75">
-        <v>-6.955869794537393</v>
+        <v>-6.9558697945373931</v>
       </c>
       <c r="K75">
-        <v>-9.327395969972992</v>
+        <v>-9.3273959699729918</v>
       </c>
       <c r="L75">
-        <v>0.0003785550239092068</v>
+        <v>3.7855502390920679E-4</v>
       </c>
       <c r="M75">
-        <v>5.404554304735158e-12</v>
+        <v>5.4045543047351583E-12</v>
       </c>
       <c r="N75">
-        <v>4.194746334751303e-20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>4.1947463347513028E-20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3991,43 +4014,43 @@
         <v>87</v>
       </c>
       <c r="C76">
-        <v>2.164973272707236</v>
+        <v>2.1649732727072362</v>
       </c>
       <c r="D76">
-        <v>7.750848822141032</v>
+        <v>7.7508488221410321</v>
       </c>
       <c r="E76">
-        <v>5.882443328868718</v>
+        <v>5.8824433288687183</v>
       </c>
       <c r="F76">
-        <v>0.03047554718455601</v>
+        <v>3.0475547184556011E-2</v>
       </c>
       <c r="G76">
-        <v>1.275230364703396e-14</v>
+        <v>1.275230364703396E-14</v>
       </c>
       <c r="H76">
-        <v>4.531628777635071e-09</v>
+        <v>4.5316287776350707E-9</v>
       </c>
       <c r="I76">
-        <v>2.088490292945346</v>
+        <v>2.0884902929453459</v>
       </c>
       <c r="J76">
-        <v>7.398935078362377</v>
+        <v>7.3989350783623768</v>
       </c>
       <c r="K76">
-        <v>6.076081163153567</v>
+        <v>6.0760811631535674</v>
       </c>
       <c r="L76">
-        <v>0.03693732945702019</v>
+        <v>3.693732945702019E-2</v>
       </c>
       <c r="M76">
-        <v>2.380865677501229e-13</v>
+        <v>2.380865677501229E-13</v>
       </c>
       <c r="N76">
-        <v>1.592054431199426e-09</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>1.5920544311994259E-9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4035,7 +4058,7 @@
         <v>88</v>
       </c>
       <c r="C77">
-        <v>8.744732766727699</v>
+        <v>8.7447327667276991</v>
       </c>
       <c r="D77">
         <v>2.685462858613318</v>
@@ -4044,34 +4067,34 @@
         <v>-7.194952630418987</v>
       </c>
       <c r="F77">
-        <v>3.820606613809446e-18</v>
+        <v>3.820606613809446E-18</v>
       </c>
       <c r="G77">
-        <v>0.007286482729047161</v>
+        <v>7.2864827290471607E-3</v>
       </c>
       <c r="H77">
-        <v>8.023180585800839e-13</v>
+        <v>8.0231805858008392E-13</v>
       </c>
       <c r="I77">
-        <v>8.639328972233749</v>
+        <v>8.6393289722337485</v>
       </c>
       <c r="J77">
-        <v>2.741697968787163</v>
+        <v>2.7416979687871632</v>
       </c>
       <c r="K77">
-        <v>-7.191311597637107</v>
+        <v>-7.1913115976371067</v>
       </c>
       <c r="L77">
-        <v>1.544155819139408e-17</v>
+        <v>1.5441558191394082E-17</v>
       </c>
       <c r="M77">
-        <v>0.006191540362815853</v>
+        <v>6.1915403628158526E-3</v>
       </c>
       <c r="N77">
-        <v>1.0506930806922e-12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>1.0506930806922E-12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4079,7 +4102,7 @@
         <v>89</v>
       </c>
       <c r="C78">
-        <v>8.744732766727699</v>
+        <v>8.7447327667276991</v>
       </c>
       <c r="D78">
         <v>2.685462858613318</v>
@@ -4088,34 +4111,34 @@
         <v>-7.194952630418987</v>
       </c>
       <c r="F78">
-        <v>3.820606613809446e-18</v>
+        <v>3.820606613809446E-18</v>
       </c>
       <c r="G78">
-        <v>0.007286482729047161</v>
+        <v>7.2864827290471607E-3</v>
       </c>
       <c r="H78">
-        <v>8.023180585800839e-13</v>
+        <v>8.0231805858008392E-13</v>
       </c>
       <c r="I78">
-        <v>8.639328972233749</v>
+        <v>8.6393289722337485</v>
       </c>
       <c r="J78">
-        <v>2.741697968787163</v>
+        <v>2.7416979687871632</v>
       </c>
       <c r="K78">
-        <v>-7.191311597637107</v>
+        <v>-7.1913115976371067</v>
       </c>
       <c r="L78">
-        <v>1.544155819139408e-17</v>
+        <v>1.5441558191394082E-17</v>
       </c>
       <c r="M78">
-        <v>0.006191540362815853</v>
+        <v>6.1915403628158526E-3</v>
       </c>
       <c r="N78">
-        <v>1.0506930806922e-12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>1.0506930806922E-12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4123,25 +4146,25 @@
         <v>90</v>
       </c>
       <c r="C79">
-        <v>1.966006166288539</v>
+        <v>1.9660061662885391</v>
       </c>
       <c r="D79">
-        <v>-0.4478659862122146</v>
+        <v>-0.44786598621221457</v>
       </c>
       <c r="E79">
         <v>-2.453958802771063</v>
       </c>
       <c r="F79">
-        <v>0.04939842852543758</v>
+        <v>4.9398428525437577E-2</v>
       </c>
       <c r="G79">
-        <v>0.6542852215250639</v>
+        <v>0.65428522152506385</v>
       </c>
       <c r="H79">
-        <v>0.01419096050310372</v>
+        <v>1.4190960503103719E-2</v>
       </c>
       <c r="I79">
-        <v>1.966006166288539</v>
+        <v>1.9660061662885391</v>
       </c>
       <c r="J79">
         <v>-0.4470834591388439</v>
@@ -4150,16 +4173,16 @@
         <v>-2.453958802771063</v>
       </c>
       <c r="L79">
-        <v>0.04949898762744382</v>
+        <v>4.949898762744382E-2</v>
       </c>
       <c r="M79">
-        <v>0.6548852659173833</v>
+        <v>0.65488526591738327</v>
       </c>
       <c r="N79">
-        <v>0.01425270193948766</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>1.4252701939487661E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4167,43 +4190,43 @@
         <v>91</v>
       </c>
       <c r="C80">
-        <v>5.42410389761305</v>
+        <v>5.4241038976130502</v>
       </c>
       <c r="D80">
-        <v>7.147656264973301</v>
+        <v>7.1476562649733006</v>
       </c>
       <c r="E80">
-        <v>2.051877233463883</v>
+        <v>2.0518772334638831</v>
       </c>
       <c r="F80">
-        <v>6.331475300915841e-08</v>
+        <v>6.331475300915841E-8</v>
       </c>
       <c r="G80">
-        <v>1.126296826706984e-12</v>
+        <v>1.1262968267069841E-12</v>
       </c>
       <c r="H80">
-        <v>0.04027616014040387</v>
+        <v>4.0276160140403867E-2</v>
       </c>
       <c r="I80">
-        <v>5.268453159752453</v>
+        <v>5.2684531597524531</v>
       </c>
       <c r="J80">
-        <v>6.968414004494267</v>
+        <v>6.9684140044942673</v>
       </c>
       <c r="K80">
-        <v>2.121548727285073</v>
+        <v>2.1215487272850728</v>
       </c>
       <c r="L80">
-        <v>1.595522325494496e-07</v>
+        <v>1.5955223254944959E-7</v>
       </c>
       <c r="M80">
-        <v>4.959032139270474e-12</v>
+        <v>4.959032139270474E-12</v>
       </c>
       <c r="N80">
-        <v>0.03405424567117211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>3.4054245671172108E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4211,25 +4234,25 @@
         <v>92</v>
       </c>
       <c r="C81">
-        <v>6.140594878224923</v>
+        <v>6.1405948782249231</v>
       </c>
       <c r="D81">
-        <v>7.33694850574345</v>
+        <v>7.3369485057434503</v>
       </c>
       <c r="E81">
         <v>1.573394955395125</v>
       </c>
       <c r="F81">
-        <v>9.408806113312547e-10</v>
+        <v>9.4088061133125475E-10</v>
       </c>
       <c r="G81">
-        <v>2.862092344951116e-13</v>
+        <v>2.8620923449511159E-13</v>
       </c>
       <c r="H81">
         <v>0.115742511399679</v>
       </c>
       <c r="I81">
-        <v>6.011375564590231</v>
+        <v>6.0113755645902307</v>
       </c>
       <c r="J81">
         <v>7.239731374538275</v>
@@ -4238,16 +4261,16 @@
         <v>1.624901697316812</v>
       </c>
       <c r="L81">
-        <v>2.353425382641693e-09</v>
+        <v>2.353425382641693E-9</v>
       </c>
       <c r="M81">
-        <v>7.457249865510997e-13</v>
+        <v>7.4572498655109967E-13</v>
       </c>
       <c r="N81">
-        <v>0.1044128506817956</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>0.10441285068179559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4255,43 +4278,43 @@
         <v>93</v>
       </c>
       <c r="C82">
-        <v>-5.165385071427873</v>
+        <v>-5.1653850714278731</v>
       </c>
       <c r="D82">
-        <v>6.176134578006381</v>
+        <v>6.1761345780063808</v>
       </c>
       <c r="E82">
         <v>11.2440189716079</v>
       </c>
       <c r="F82">
-        <v>2.571132641754584e-07</v>
+        <v>2.5711326417545841E-7</v>
       </c>
       <c r="G82">
-        <v>7.540866447575665e-10</v>
+        <v>7.5408664475756647E-10</v>
       </c>
       <c r="H82">
-        <v>1.039202674867552e-28</v>
+        <v>1.039202674867552E-28</v>
       </c>
       <c r="I82">
-        <v>-4.926880547850306</v>
+        <v>-4.9268805478503062</v>
       </c>
       <c r="J82">
-        <v>5.833239118135833</v>
+        <v>5.8332391181358334</v>
       </c>
       <c r="K82">
         <v>11.30948399436342</v>
       </c>
       <c r="L82">
-        <v>9.369679708368169e-07</v>
+        <v>9.3696797083681694E-7</v>
       </c>
       <c r="M82">
-        <v>6.769364483784242e-09</v>
+        <v>6.7693644837842421E-9</v>
       </c>
       <c r="N82">
-        <v>2.03257217578199e-28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>2.0325721757819902E-28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4299,43 +4322,43 @@
         <v>94</v>
       </c>
       <c r="C83">
-        <v>-5.338988130090767</v>
+        <v>-5.3389881300907671</v>
       </c>
       <c r="D83">
-        <v>6.155172990854734</v>
+        <v>6.1551729908547337</v>
       </c>
       <c r="E83">
-        <v>11.38181119758893</v>
+        <v>11.381811197588929</v>
       </c>
       <c r="F83">
-        <v>1.010996925071872e-07</v>
+        <v>1.010996925071872E-7</v>
       </c>
       <c r="G83">
-        <v>8.593532401116389e-10</v>
+        <v>8.5935324011163887E-10</v>
       </c>
       <c r="H83">
-        <v>2.316651594471996e-29</v>
+        <v>2.3166515944719959E-29</v>
       </c>
       <c r="I83">
-        <v>-5.107864031927799</v>
+        <v>-5.1078640319277993</v>
       </c>
       <c r="J83">
-        <v>5.836563371147721</v>
+        <v>5.8365633711477214</v>
       </c>
       <c r="K83">
         <v>11.52207563590931</v>
       </c>
       <c r="L83">
-        <v>3.71638940279119e-07</v>
+        <v>3.7163894027911899E-7</v>
       </c>
       <c r="M83">
-        <v>6.638944211045929e-09</v>
+        <v>6.6389442110459287E-9</v>
       </c>
       <c r="N83">
-        <v>2.178227110987551e-29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>2.1782271109875509E-29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4343,43 +4366,43 @@
         <v>95</v>
       </c>
       <c r="C84">
-        <v>-5.018676461492897</v>
+        <v>-5.0186764614928974</v>
       </c>
       <c r="D84">
-        <v>7.460659609065851</v>
+        <v>7.4606596090658508</v>
       </c>
       <c r="E84">
-        <v>12.43423730639059</v>
+        <v>12.434237306390591</v>
       </c>
       <c r="F84">
-        <v>5.534863697479542e-07</v>
+        <v>5.5348636974795421E-7</v>
       </c>
       <c r="G84">
-        <v>1.148302302455522e-13</v>
+        <v>1.148302302455522E-13</v>
       </c>
       <c r="H84">
-        <v>1.424558080051592e-34</v>
+        <v>1.4245580800515919E-34</v>
       </c>
       <c r="I84">
-        <v>-4.834531225032315</v>
+        <v>-4.8345312250323147</v>
       </c>
       <c r="J84">
-        <v>7.16836982848053</v>
+        <v>7.1683698284805297</v>
       </c>
       <c r="K84">
         <v>13.44597746056397</v>
       </c>
       <c r="L84">
-        <v>1.484699019701116e-06</v>
+        <v>1.4846990197011159E-6</v>
       </c>
       <c r="M84">
-        <v>1.235132529692144e-12</v>
+        <v>1.2351325296921439E-12</v>
       </c>
       <c r="N84">
-        <v>8.228471169990852e-39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>8.228471169990852E-39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4393,37 +4416,37 @@
         <v>-10.99630944455417</v>
       </c>
       <c r="E85">
-        <v>-16.20534355044023</v>
+        <v>-16.205343550440229</v>
       </c>
       <c r="F85">
-        <v>7.979159272431532e-11</v>
+        <v>7.9791592724315318E-11</v>
       </c>
       <c r="G85">
-        <v>1.481093938349549e-27</v>
+        <v>1.481093938349549E-27</v>
       </c>
       <c r="H85">
-        <v>1.768072514612705e-56</v>
+        <v>1.768072514612705E-56</v>
       </c>
       <c r="I85">
-        <v>6.326650204406215</v>
+        <v>6.3266502044062154</v>
       </c>
       <c r="J85">
-        <v>-10.73830690484617</v>
+        <v>-10.738306904846169</v>
       </c>
       <c r="K85">
         <v>-16.54597874723024</v>
       </c>
       <c r="L85">
-        <v>3.38252474917249e-10</v>
+        <v>3.3825247491724902E-10</v>
       </c>
       <c r="M85">
-        <v>6.928068772644276e-26</v>
+        <v>6.9280687726442755E-26</v>
       </c>
       <c r="N85">
-        <v>3.236583497266574e-56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>3.2365834972665739E-56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4434,40 +4457,40 @@
         <v>3.889507847268511</v>
       </c>
       <c r="D86">
-        <v>-4.947172380774282</v>
+        <v>-4.9471723807742816</v>
       </c>
       <c r="E86">
         <v>-7.875441718002814</v>
       </c>
       <c r="F86">
-        <v>0.0001028291269025931</v>
+        <v>1.028291269025931E-4</v>
       </c>
       <c r="G86">
-        <v>7.983873499069176e-07</v>
+        <v>7.9838734990691755E-7</v>
       </c>
       <c r="H86">
-        <v>4.846657677765456e-15</v>
+        <v>4.8466576777654562E-15</v>
       </c>
       <c r="I86">
-        <v>3.776996802186558</v>
+        <v>3.7769968021865581</v>
       </c>
       <c r="J86">
-        <v>-4.78155574756399</v>
+        <v>-4.7815557475639903</v>
       </c>
       <c r="K86">
-        <v>-7.953445405908917</v>
+        <v>-7.9534454059089166</v>
       </c>
       <c r="L86">
-        <v>0.0001655103431181991</v>
+        <v>1.6551034311819909E-4</v>
       </c>
       <c r="M86">
-        <v>1.926582903941826e-06</v>
+        <v>1.9265829039418259E-6</v>
       </c>
       <c r="N86">
-        <v>3.75962487942535e-15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>3.7596248794253504E-15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4475,7 +4498,7 @@
         <v>98</v>
       </c>
       <c r="C87">
-        <v>6.62913718240332</v>
+        <v>6.6291371824033201</v>
       </c>
       <c r="D87">
         <v>-12.55707373937903</v>
@@ -4484,16 +4507,16 @@
         <v>-19.02121092200165</v>
       </c>
       <c r="F87">
-        <v>4.049324509559333e-11</v>
+        <v>4.0493245095593328E-11</v>
       </c>
       <c r="G87">
-        <v>3.303135072473744e-35</v>
+        <v>3.3031350724737442E-35</v>
       </c>
       <c r="H87">
-        <v>6.945039326173104e-76</v>
+        <v>6.9450393261731039E-76</v>
       </c>
       <c r="I87">
-        <v>6.511011676132119</v>
+        <v>6.5110116761321191</v>
       </c>
       <c r="J87">
         <v>-12.7244352268472</v>
@@ -4502,16 +4525,16 @@
         <v>-19.55400352419662</v>
       </c>
       <c r="L87">
-        <v>1.043997870928957e-10</v>
+        <v>1.043997870928957E-10</v>
       </c>
       <c r="M87">
-        <v>3.820616325948812e-35</v>
+        <v>3.8206163259488118E-35</v>
       </c>
       <c r="N87">
-        <v>2.572512119589069e-75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>2.5725121195890688E-75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4519,43 +4542,43 @@
         <v>99</v>
       </c>
       <c r="C88">
-        <v>4.864740423658342</v>
+        <v>4.8647404236583416</v>
       </c>
       <c r="D88">
         <v>-11.18253036400478</v>
       </c>
       <c r="E88">
-        <v>-15.70608776108658</v>
+        <v>-15.706087761086581</v>
       </c>
       <c r="F88">
-        <v>1.210727020905015e-06</v>
+        <v>1.210727020905015E-6</v>
       </c>
       <c r="G88">
-        <v>2.019669863952876e-28</v>
+        <v>2.0196698639528762E-28</v>
       </c>
       <c r="H88">
-        <v>2.667010540646053e-53</v>
+        <v>2.6670105406460532E-53</v>
       </c>
       <c r="I88">
-        <v>4.785923745663786</v>
+        <v>4.7859237456637862</v>
       </c>
       <c r="J88">
-        <v>-11.31638633297493</v>
+        <v>-11.316386332974931</v>
       </c>
       <c r="K88">
-        <v>-16.1900828737485</v>
+        <v>-16.190082873748501</v>
       </c>
       <c r="L88">
-        <v>1.885820638799006e-06</v>
+        <v>1.8858206387990061E-6</v>
       </c>
       <c r="M88">
-        <v>1.891407012704297e-28</v>
+        <v>1.891407012704297E-28</v>
       </c>
       <c r="N88">
-        <v>4.315029561684048e-54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>4.3150295616840483E-54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4566,40 +4589,40 @@
         <v>-3.263760639669476</v>
       </c>
       <c r="D89">
-        <v>0.08222115581647584</v>
+        <v>8.2221155816475835E-2</v>
       </c>
       <c r="E89">
-        <v>3.318229173728262</v>
+        <v>3.3182291737282621</v>
       </c>
       <c r="F89">
-        <v>0.001112913307719925</v>
+        <v>1.1129133077199249E-3</v>
       </c>
       <c r="G89">
         <v>0.9344768385399741</v>
       </c>
       <c r="H89">
-        <v>0.0009177071976951531</v>
+        <v>9.1770719769515314E-4</v>
       </c>
       <c r="I89">
-        <v>-3.203625153996277</v>
+        <v>-3.2036251539962768</v>
       </c>
       <c r="J89">
-        <v>0.08007621260131988</v>
+        <v>8.0076212601319877E-2</v>
       </c>
       <c r="K89">
-        <v>3.202465504353219</v>
+        <v>3.2024655043532189</v>
       </c>
       <c r="L89">
-        <v>0.00138823821856361</v>
+        <v>1.3882382185636101E-3</v>
       </c>
       <c r="M89">
-        <v>0.9361883027064437</v>
+        <v>0.93618830270644371</v>
       </c>
       <c r="N89">
-        <v>0.001393797606242978</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>1.3937976062429779E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4607,43 +4630,43 @@
         <v>101</v>
       </c>
       <c r="C90">
-        <v>-3.685348820840138</v>
+        <v>-3.6853488208401379</v>
       </c>
       <c r="D90">
-        <v>0.296227040706575</v>
+        <v>0.29622704070657502</v>
       </c>
       <c r="E90">
-        <v>3.878178603552606</v>
+        <v>3.8781786035526058</v>
       </c>
       <c r="F90">
-        <v>0.000232802059281574</v>
+        <v>2.3280205928157401E-4</v>
       </c>
       <c r="G90">
-        <v>0.767079083741749</v>
+        <v>0.76707908374174905</v>
       </c>
       <c r="H90">
-        <v>0.0001077089219741476</v>
+        <v>1.077089219741476E-4</v>
       </c>
       <c r="I90">
         <v>-3.648715240688325</v>
       </c>
       <c r="J90">
-        <v>0.2885156290188389</v>
+        <v>0.28851562901883893</v>
       </c>
       <c r="K90">
         <v>3.760122852612112</v>
       </c>
       <c r="L90">
-        <v>0.0002734213102617893</v>
+        <v>2.7342131026178928E-4</v>
       </c>
       <c r="M90">
-        <v>0.7729955868142886</v>
+        <v>0.77299558681428859</v>
       </c>
       <c r="N90">
-        <v>0.0001769603652690575</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>1.769603652690575E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4651,7 +4674,7 @@
         <v>102</v>
       </c>
       <c r="C91">
-        <v>5.586084258151377</v>
+        <v>5.5860842581513772</v>
       </c>
       <c r="D91">
         <v>-12.60133991867303</v>
@@ -4660,34 +4683,34 @@
         <v>-18.18754862162406</v>
       </c>
       <c r="F91">
-        <v>2.550071862000457e-08</v>
+        <v>2.550071862000457E-8</v>
       </c>
       <c r="G91">
-        <v>1.944631354498354e-35</v>
+        <v>1.944631354498354E-35</v>
       </c>
       <c r="H91">
-        <v>6.932246489123283e-70</v>
+        <v>6.9322464891232828E-70</v>
       </c>
       <c r="I91">
-        <v>5.483616955723408</v>
+        <v>5.4836169557234076</v>
       </c>
       <c r="J91">
-        <v>-12.85618752194883</v>
+        <v>-12.856187521948829</v>
       </c>
       <c r="K91">
-        <v>-18.94214583562649</v>
+        <v>-18.942145835626491</v>
       </c>
       <c r="L91">
-        <v>4.953412300267648e-08</v>
+        <v>4.953412300267648E-8</v>
       </c>
       <c r="M91">
-        <v>8.398527781036673e-36</v>
+        <v>8.3985277810366726E-36</v>
       </c>
       <c r="N91">
-        <v>2.815002558175128e-71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>2.8150025581751281E-71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4695,7 +4718,7 @@
         <v>103</v>
       </c>
       <c r="C92">
-        <v>4.905746093791508</v>
+        <v>4.9057460937915076</v>
       </c>
       <c r="D92">
         <v>-12.42665419342381</v>
@@ -4704,34 +4727,34 @@
         <v>-17.12880517746849</v>
       </c>
       <c r="F92">
-        <v>9.850041039508608e-07</v>
+        <v>9.8500410395086082E-7</v>
       </c>
       <c r="G92">
-        <v>1.55842393708473e-34</v>
+        <v>1.55842393708473E-34</v>
       </c>
       <c r="H92">
-        <v>1.430423931948749e-62</v>
+        <v>1.430423931948749E-62</v>
       </c>
       <c r="I92">
-        <v>4.885830453317015</v>
+        <v>4.8858304533170154</v>
       </c>
       <c r="J92">
         <v>-12.46300709712626</v>
       </c>
       <c r="K92">
-        <v>-17.14471183522834</v>
+        <v>-17.144711835228339</v>
       </c>
       <c r="L92">
-        <v>1.150817426688597e-06</v>
+        <v>1.1508174266885971E-6</v>
       </c>
       <c r="M92">
-        <v>7.44690556895724e-34</v>
+        <v>7.4469055689572397E-34</v>
       </c>
       <c r="N92">
-        <v>7.36367032769997e-60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>7.3636703276999697E-60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4748,34 +4771,34 @@
         <v>-11.78525468659439</v>
       </c>
       <c r="F93">
-        <v>0.01528250609261936</v>
+        <v>1.528250609261936E-2</v>
       </c>
       <c r="G93">
-        <v>6.205046267045561e-25</v>
+        <v>6.2050462670455613E-25</v>
       </c>
       <c r="H93">
-        <v>2.603622342208408e-31</v>
+        <v>2.6036223422084081E-31</v>
       </c>
       <c r="I93">
-        <v>2.424780252149963</v>
+        <v>2.4247802521499628</v>
       </c>
       <c r="J93">
         <v>-10.49363544046164</v>
       </c>
       <c r="K93">
-        <v>-12.6947312659086</v>
+        <v>-12.694731265908599</v>
       </c>
       <c r="L93">
-        <v>0.01544589936469387</v>
+        <v>1.544589936469387E-2</v>
       </c>
       <c r="M93">
-        <v>7.80225022105974e-25</v>
+        <v>7.8022502210597402E-25</v>
       </c>
       <c r="N93">
-        <v>5.367087597502908e-35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>5.3670875975029085E-35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4783,43 +4806,43 @@
         <v>105</v>
       </c>
       <c r="C94">
-        <v>-2.516352832592778</v>
+        <v>-2.5163528325927782</v>
       </c>
       <c r="D94">
-        <v>7.345920402686668</v>
+        <v>7.3459204026866676</v>
       </c>
       <c r="E94">
-        <v>8.440612344463789</v>
+        <v>8.4406123444637888</v>
       </c>
       <c r="F94">
-        <v>0.01191417062392196</v>
+        <v>1.1914170623921959E-2</v>
       </c>
       <c r="G94">
-        <v>2.679945279059994e-13</v>
+        <v>2.6799452790599938E-13</v>
       </c>
       <c r="H94">
-        <v>5.033960586081583e-17</v>
+        <v>5.0339605860815829E-17</v>
       </c>
       <c r="I94">
-        <v>-2.50585087404586</v>
+        <v>-2.5058508740458598</v>
       </c>
       <c r="J94">
         <v>7.601674775807175</v>
       </c>
       <c r="K94">
-        <v>8.669874341069802</v>
+        <v>8.6698743410698018</v>
       </c>
       <c r="L94">
-        <v>0.01233057784999891</v>
+        <v>1.233057784999891E-2</v>
       </c>
       <c r="M94">
-        <v>5.387994066025155e-14</v>
+        <v>5.3879940660251553E-14</v>
       </c>
       <c r="N94">
-        <v>1.197848532635492e-17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>1.1978485326354921E-17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4830,40 +4853,40 @@
         <v>-4.986808692425555</v>
       </c>
       <c r="D95">
-        <v>-15.12231150025779</v>
+        <v>-15.122311500257791</v>
       </c>
       <c r="E95">
         <v>-11.82395693572736</v>
       </c>
       <c r="F95">
-        <v>6.520412574893019e-07</v>
+        <v>6.5204125748930194E-7</v>
       </c>
       <c r="G95">
-        <v>1.091217532199944e-49</v>
+        <v>1.091217532199944E-49</v>
       </c>
       <c r="H95">
-        <v>1.680368553132622e-31</v>
+        <v>1.680368553132622E-31</v>
       </c>
       <c r="I95">
-        <v>-4.798737078270851</v>
+        <v>-4.7987370782708512</v>
       </c>
       <c r="J95">
         <v>-14.83015386901838</v>
       </c>
       <c r="K95">
-        <v>-12.0097927855494</v>
+        <v>-12.009792785549401</v>
       </c>
       <c r="L95">
-        <v>1.770976003341353e-06</v>
+        <v>1.770976003341353E-6</v>
       </c>
       <c r="M95">
-        <v>2.889835062731773e-46</v>
+        <v>2.8898350627317731E-46</v>
       </c>
       <c r="N95">
-        <v>1.142915757059481e-31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>1.142915757059481E-31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4871,43 +4894,43 @@
         <v>107</v>
       </c>
       <c r="C96">
-        <v>16.86263393643602</v>
+        <v>16.862633936436019</v>
       </c>
       <c r="D96">
-        <v>0.3462557343743398</v>
+        <v>0.34625573437433982</v>
       </c>
       <c r="E96">
-        <v>-17.67183417508995</v>
+        <v>-17.671834175089948</v>
       </c>
       <c r="F96">
-        <v>8.6964709535495e-61</v>
+        <v>8.6964709535495003E-61</v>
       </c>
       <c r="G96">
-        <v>0.7291770404148616</v>
+        <v>0.72917704041486164</v>
       </c>
       <c r="H96">
-        <v>2.799516191738304e-66</v>
+        <v>2.7995161917383041E-66</v>
       </c>
       <c r="I96">
         <v>16.48727366585339</v>
       </c>
       <c r="J96">
-        <v>0.3338874712240437</v>
+        <v>0.33388747122404372</v>
       </c>
       <c r="K96">
-        <v>-17.18520215939687</v>
+        <v>-17.185202159396869</v>
       </c>
       <c r="L96">
-        <v>7.289595058247671e-56</v>
+        <v>7.2895950582476713E-56</v>
       </c>
       <c r="M96">
-        <v>0.7385154243569896</v>
+        <v>0.73851542435698958</v>
       </c>
       <c r="N96">
-        <v>4.146804292203521e-60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>4.1468042922035208E-60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4915,43 +4938,43 @@
         <v>108</v>
       </c>
       <c r="C97">
-        <v>1.788444955136702</v>
+        <v>1.7884449551367021</v>
       </c>
       <c r="D97">
-        <v>-11.16566076206668</v>
+        <v>-11.165660762066681</v>
       </c>
       <c r="E97">
-        <v>-11.92493839990935</v>
+        <v>-11.924938399909349</v>
       </c>
       <c r="F97">
-        <v>0.07381437630623607</v>
+        <v>7.3814376306236065E-2</v>
       </c>
       <c r="G97">
-        <v>2.422172189668399e-28</v>
+        <v>2.4221721896683988E-28</v>
       </c>
       <c r="H97">
-        <v>5.328402403969088e-32</v>
+        <v>5.3284024039690876E-32</v>
       </c>
       <c r="I97">
         <v>1.800905382846165</v>
       </c>
       <c r="J97">
-        <v>-11.34785272769924</v>
+        <v>-11.347852727699239</v>
       </c>
       <c r="K97">
         <v>-12.99950818436781</v>
       </c>
       <c r="L97">
-        <v>0.07193699828438506</v>
+        <v>7.1936998284385059E-2</v>
       </c>
       <c r="M97">
-        <v>1.361681780145291e-28</v>
+        <v>1.361681780145291E-28</v>
       </c>
       <c r="N97">
-        <v>1.594260102841673e-36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>1.5942601028416731E-36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4962,40 +4985,40 @@
         <v>-2.150093957542289</v>
       </c>
       <c r="D98">
-        <v>10.50632466012211</v>
+        <v>10.506324660122109</v>
       </c>
       <c r="E98">
-        <v>11.29833773185453</v>
+        <v>11.298337731854531</v>
       </c>
       <c r="F98">
-        <v>0.03163479400029876</v>
+        <v>3.1634794000298762E-2</v>
       </c>
       <c r="G98">
-        <v>2.425002509350705e-25</v>
+        <v>2.4250025093507051E-25</v>
       </c>
       <c r="H98">
-        <v>5.762216137240716e-29</v>
+        <v>5.7622161372407162E-29</v>
       </c>
       <c r="I98">
-        <v>-2.143788245915211</v>
+        <v>-2.1437882459152111</v>
       </c>
       <c r="J98">
-        <v>10.78132626637274</v>
+        <v>10.781326266372741</v>
       </c>
       <c r="K98">
-        <v>11.80088944420361</v>
+        <v>11.800889444203611</v>
       </c>
       <c r="L98">
-        <v>0.03222494049024262</v>
+        <v>3.2224940490242618E-2</v>
       </c>
       <c r="M98">
-        <v>4.504383251533498e-26</v>
+        <v>4.5043832515334978E-26</v>
       </c>
       <c r="N98">
-        <v>1.106442757372281e-30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>1.106442757372281E-30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5003,43 +5026,43 @@
         <v>110</v>
       </c>
       <c r="C99">
-        <v>-6.886254266495312</v>
+        <v>-6.8862542664953121</v>
       </c>
       <c r="D99">
         <v>-13.13924437097057</v>
       </c>
       <c r="E99">
-        <v>-7.38208835600388</v>
+        <v>-7.3820883560038801</v>
       </c>
       <c r="F99">
-        <v>7.071737018527202e-12</v>
+        <v>7.0717370185272017E-12</v>
       </c>
       <c r="G99">
-        <v>2.730914512654932e-38</v>
+        <v>2.7309145126549322E-38</v>
       </c>
       <c r="H99">
-        <v>2.054350055126414e-13</v>
+        <v>2.0543500551264139E-13</v>
       </c>
       <c r="I99">
-        <v>-6.660899665619657</v>
+        <v>-6.6608996656196569</v>
       </c>
       <c r="J99">
-        <v>-12.92119705948573</v>
+        <v>-12.921197059485729</v>
       </c>
       <c r="K99">
-        <v>-7.518160869657255</v>
+        <v>-7.5181608696572546</v>
       </c>
       <c r="L99">
-        <v>3.925842566190899e-11</v>
+        <v>3.9258425661908993E-11</v>
       </c>
       <c r="M99">
-        <v>3.959442376621258e-36</v>
+        <v>3.959442376621258E-36</v>
       </c>
       <c r="N99">
-        <v>9.979844712255418e-14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>9.9798447122554183E-14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5056,34 +5079,34 @@
         <v>-10.35384360369774</v>
       </c>
       <c r="F100">
-        <v>1.628286417248693e-32</v>
+        <v>1.6282864172486929E-32</v>
       </c>
       <c r="G100">
-        <v>0.3045785190474642</v>
+        <v>0.30457851904746419</v>
       </c>
       <c r="H100">
-        <v>1.135278999070394e-24</v>
+        <v>1.135278999070394E-24</v>
       </c>
       <c r="I100">
         <v>11.57647104979357</v>
       </c>
       <c r="J100">
-        <v>0.9780285801568155</v>
+        <v>0.97802858015681549</v>
       </c>
       <c r="K100">
-        <v>-9.892956414153325</v>
+        <v>-9.8929564141533248</v>
       </c>
       <c r="L100">
-        <v>1.223419276510499e-29</v>
+        <v>1.223419276510499E-29</v>
       </c>
       <c r="M100">
-        <v>0.3282323542734055</v>
+        <v>0.32823235427340552</v>
       </c>
       <c r="N100">
-        <v>2.44120844548668e-22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>2.4412084454866802E-22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5091,43 +5114,43 @@
         <v>112</v>
       </c>
       <c r="C101">
-        <v>-7.494753556939555</v>
+        <v>-7.4947535569395551</v>
       </c>
       <c r="D101">
-        <v>-0.5274153677208133</v>
+        <v>-0.52741536772081332</v>
       </c>
       <c r="E101">
-        <v>7.350122054001839</v>
+        <v>7.3501220540018393</v>
       </c>
       <c r="F101">
-        <v>8.905694294478523e-14</v>
+        <v>8.905694294478523E-14</v>
       </c>
       <c r="G101">
-        <v>0.5979477509575487</v>
+        <v>0.59794775095754871</v>
       </c>
       <c r="H101">
-        <v>2.598608550402484e-13</v>
+        <v>2.5986085504024841E-13</v>
       </c>
       <c r="I101">
-        <v>-7.549443819527591</v>
+        <v>-7.5494438195275908</v>
       </c>
       <c r="J101">
-        <v>-0.5284047243090098</v>
+        <v>-0.52840472430900975</v>
       </c>
       <c r="K101">
-        <v>7.224722621857595</v>
+        <v>7.2247226218575946</v>
       </c>
       <c r="L101">
-        <v>7.927870755067303e-14</v>
+        <v>7.9278707550673029E-14</v>
       </c>
       <c r="M101">
-        <v>0.5973037932233543</v>
+        <v>0.59730379322335425</v>
       </c>
       <c r="N101">
-        <v>8.29521934713024e-13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>8.2952193471302403E-13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5135,43 +5158,43 @@
         <v>113</v>
       </c>
       <c r="C102">
-        <v>-0.2683453809342118</v>
+        <v>-0.26834538093421179</v>
       </c>
       <c r="D102">
-        <v>2.595925693500618</v>
+        <v>2.5959256935006181</v>
       </c>
       <c r="E102">
         <v>2.639236305358271</v>
       </c>
       <c r="F102">
-        <v>0.7884536195643264</v>
+        <v>0.78845361956432636</v>
       </c>
       <c r="G102">
-        <v>0.009483879679733158</v>
+        <v>9.4838796797331575E-3</v>
       </c>
       <c r="H102">
-        <v>0.008356242445267359</v>
+        <v>8.3562424452673593E-3</v>
       </c>
       <c r="I102">
-        <v>-0.2684881738815553</v>
+        <v>-0.26848817388155533</v>
       </c>
       <c r="J102">
         <v>2.578698197997821</v>
       </c>
       <c r="K102">
-        <v>2.659737787465309</v>
+        <v>2.6597377874653092</v>
       </c>
       <c r="L102">
-        <v>0.7883638811484918</v>
+        <v>0.78836388114849176</v>
       </c>
       <c r="M102">
-        <v>0.01002059081278764</v>
+        <v>1.002059081278764E-2</v>
       </c>
       <c r="N102">
-        <v>0.007911096641402906</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>7.9110966414029059E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5179,40 +5202,40 @@
         <v>114</v>
       </c>
       <c r="C103">
-        <v>-6.47973554965036</v>
+        <v>-6.4797355496503597</v>
       </c>
       <c r="D103">
-        <v>-1.283632177737095</v>
+        <v>-1.2836321777370949</v>
       </c>
       <c r="E103">
-        <v>5.546853582032819</v>
+        <v>5.5468535820328189</v>
       </c>
       <c r="F103">
-        <v>1.085046212729134e-10</v>
+        <v>1.085046212729134E-10</v>
       </c>
       <c r="G103">
         <v>0.1993789126273178</v>
       </c>
       <c r="H103">
-        <v>3.185589143320188e-08</v>
+        <v>3.1855891433201878E-8</v>
       </c>
       <c r="I103">
-        <v>-6.57665459061703</v>
+        <v>-6.5766545906170304</v>
       </c>
       <c r="J103">
-        <v>-1.292809709824407</v>
+        <v>-1.2928097098244069</v>
       </c>
       <c r="K103">
-        <v>5.401313868887097</v>
+        <v>5.4013138688870974</v>
       </c>
       <c r="L103">
-        <v>6.819337648829596e-11</v>
+        <v>6.8193376488295957E-11</v>
       </c>
       <c r="M103">
-        <v>0.1962942244599487</v>
+        <v>0.19629422445994871</v>
       </c>
       <c r="N103">
-        <v>7.787173653934167e-08</v>
+        <v>7.7871736539341671E-8</v>
       </c>
     </row>
   </sheetData>
